--- a/TESTCASE _ PI FOOD [Amin].xlsx
+++ b/TESTCASE _ PI FOOD [Amin].xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="807">
   <si>
     <t>Intergration testing : PI FOOD [Admin]</t>
   </si>
@@ -382,16 +382,40 @@
     <t>Fail</t>
   </si>
   <si>
+    <t>Untested</t>
+  </si>
+  <si>
     <t>Number of testcase</t>
   </si>
   <si>
-    <t>Home page</t>
-  </si>
-  <si>
-    <t>Order manager</t>
-  </si>
-  <si>
-    <t>Order</t>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>View Product Page</t>
+  </si>
+  <si>
+    <t>View category Page</t>
+  </si>
+  <si>
+    <t>View campaign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test coverage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test sucessful coverage </t>
+  </si>
+  <si>
+    <t>View order page</t>
+  </si>
+  <si>
+    <t>Banner manager</t>
+  </si>
+  <si>
+    <t>Order Statistics</t>
+  </si>
+  <si>
+    <t>Customer manager</t>
   </si>
   <si>
     <t>Testcase Total</t>
@@ -2617,6 +2641,9 @@
  Reject order</t>
   </si>
   <si>
+    <t>EditOrder_010</t>
+  </si>
+  <si>
     <t>Verify delete order when click on button in Action field</t>
   </si>
   <si>
@@ -2810,7 +2837,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2871,6 +2898,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="14.0"/>
@@ -2983,7 +3016,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3006,6 +3039,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -3081,7 +3120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="45">
     <border/>
     <border>
       <left style="thin">
@@ -3424,25 +3463,6 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -3685,29 +3705,31 @@
     <xf borderId="15" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="33" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="27" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="11" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="29" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="8" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf borderId="6" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="19" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="34" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="23" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="31" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="21" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3719,7 +3741,7 @@
     <xf borderId="27" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3728,10 +3750,10 @@
     <xf borderId="29" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="35" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="33" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="35" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="33" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3740,20 +3762,20 @@
     <xf borderId="31" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="35" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="33" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="35" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="33" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="35" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="33" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="36" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="34" fillId="9" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="37" fillId="9" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="38" fillId="9" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="35" fillId="10" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="36" fillId="10" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="26" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -3775,31 +3797,31 @@
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="26" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="26" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="26" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="26" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="26" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="18" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3814,19 +3836,19 @@
     <xf borderId="18" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="18" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="26" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="18" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="18" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="18" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3835,25 +3857,25 @@
     <xf borderId="18" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="39" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="37" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="40" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="38" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="39" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="40" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="41" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="42" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="43" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="44" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="45" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="43" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="29" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3862,24 +3884,24 @@
     <xf borderId="18" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="26" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="29" fillId="8" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="29" fillId="9" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="46" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="44" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="13" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="18" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3888,22 +3910,22 @@
     <xf borderId="18" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="29" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="29" fillId="9" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="46" fillId="10" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="10" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="44" fillId="11" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="11" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="26" fillId="11" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="11" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="11" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="10" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="8" fillId="11" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="11" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="26" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -3915,8 +3937,8 @@
     </xf>
     <xf borderId="8" fillId="4" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="4" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="10" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="11" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="11" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3925,10 +3947,10 @@
     <xf borderId="18" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="29" fillId="11" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="29" fillId="12" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="26" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3937,29 +3959,29 @@
     <xf borderId="26" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="26" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="26" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="26" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="11" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="12" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="10" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="10" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="10" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="11" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="11" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="18" fillId="11" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="12" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="6" fillId="13" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="18" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3968,19 +3990,19 @@
     <xf borderId="18" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="29" fillId="12" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="29" fillId="13" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="24" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="24" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="24" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="24" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="24" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3992,22 +4014,22 @@
     <xf borderId="26" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="26" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="11" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="10" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="11" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="13" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="11" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="10" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="11" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="13" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="11" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="26" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -4022,31 +4044,31 @@
     <xf borderId="8" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="26" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="11" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="10" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="11" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="8" fillId="10" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="11" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="11" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="26" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="11" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="10" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="11" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="26" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="26" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="11" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="18" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -4064,13 +4086,13 @@
     <xf borderId="13" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="11" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="18" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -4084,53 +4106,53 @@
     </xf>
     <xf borderId="13" fillId="4" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="4" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="11" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="26" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="8" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="4" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="8" fillId="10" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="11" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="11" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="4" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="10" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="11" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="11" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="11" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="10" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="4" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="11" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="18" fillId="4" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="7" fillId="9" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="9" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="7" fillId="10" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="10" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="18" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -4140,26 +4162,26 @@
     <xf borderId="13" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="11" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="11" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="11" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="29" fillId="13" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="29" fillId="14" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="46" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="44" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="18" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="14" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="15" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -4177,7 +4199,7 @@
     <xf borderId="13" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -4186,10 +4208,10 @@
     <xf borderId="18" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="26" fillId="15" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="26" fillId="16" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="15" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="16" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="26" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -4198,22 +4220,22 @@
     <xf borderId="8" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="16" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="8" fillId="17" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="26" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -4228,8 +4250,8 @@
     <xf borderId="18" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="29" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="29" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="18" fillId="0" fontId="30" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="18" fillId="0" fontId="30" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -4282,6 +4304,325 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Testcase Report'!$D$35</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Testcase Report'!$E$35</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Testcase Report'!$F$35</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Testcase Report'!$G$35</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="1822362395"/>
+        <c:axId val="608981033"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1822362395"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="608981033"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="608981033"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1822362395"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
@@ -4291,7 +4632,33 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6467475" cy="4000500"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name="Chart 1" title="Biểu đồ"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7587,12 +7954,10 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="10.0"/>
     <col customWidth="1" min="2" max="2" width="15.5"/>
-    <col customWidth="1" min="3" max="3" width="29.13"/>
-    <col customWidth="1" min="4" max="4" width="28.13"/>
-    <col customWidth="1" min="5" max="5" width="32.13"/>
-    <col customWidth="1" min="6" max="7" width="21.38"/>
-    <col customWidth="1" min="8" max="8" width="28.0"/>
-    <col customWidth="1" min="9" max="24" width="20.13"/>
+    <col customWidth="1" min="3" max="3" width="32.13"/>
+    <col customWidth="1" min="4" max="6" width="21.38"/>
+    <col customWidth="1" min="7" max="7" width="28.0"/>
+    <col customWidth="1" min="8" max="23" width="20.13"/>
   </cols>
   <sheetData>
     <row r="1" ht="38.25" customHeight="1">
@@ -7606,22 +7971,19 @@
         <v>5</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="56" t="s">
         <v>17</v>
       </c>
+      <c r="D3" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>98</v>
+      </c>
       <c r="F3" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="H3" s="57" t="s">
         <v>99</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="4" ht="38.25" customHeight="1">
@@ -7629,334 +7991,680 @@
         <v>1.0</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="19" t="s">
         <v>21</v>
       </c>
+      <c r="D4" s="19">
+        <v>15.0</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0.0</v>
+      </c>
       <c r="F4" s="19">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c r="G4" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="H4" s="19">
-        <v>15.0</v>
+        <f t="shared" ref="G4:G35" si="1">SUM(D4,E4,F4)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="5" ht="38.25" customHeight="1">
       <c r="B5" s="30">
         <v>2.0</v>
       </c>
-      <c r="C5" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="G5" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="38.25" customHeight="1">
+      <c r="B6" s="30"/>
+      <c r="C6" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="19">
+        <v>16.0</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="19">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="38.25" customHeight="1">
+      <c r="B7" s="19">
+        <v>3.0</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="30">
-        <v>47.0</v>
-      </c>
-      <c r="G5" s="30">
+      <c r="D7" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="19">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" ht="38.25" customHeight="1">
+      <c r="B8" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" ht="38.25" customHeight="1">
+      <c r="B9" s="19">
+        <v>5.0</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="19">
+        <v>15.0</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="19">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" ht="38.25" customHeight="1">
+      <c r="B10" s="19">
+        <v>6.0</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="19">
+        <v>8.0</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="19">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" ht="38.25" customHeight="1">
+      <c r="B11" s="19">
+        <v>7.0</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="38.25" customHeight="1">
+      <c r="B12" s="19">
+        <v>8.0</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="38.25" customHeight="1">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="19">
+        <v>9.0</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="F13" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="19">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" ht="38.25" customHeight="1">
+      <c r="B14" s="19">
+        <v>9.0</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="19">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" ht="38.25" customHeight="1">
+      <c r="B15" s="19">
+        <v>10.0</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="E15" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="F15" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" ht="38.25" customHeight="1">
+      <c r="B16" s="19">
         <v>11.0</v>
       </c>
-      <c r="H5" s="30">
-        <v>58.0</v>
-      </c>
-    </row>
-    <row r="6" ht="38.25" customHeight="1">
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-    </row>
-    <row r="7" ht="38.25" customHeight="1">
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-    </row>
-    <row r="8" ht="38.25" customHeight="1">
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-    </row>
-    <row r="9" ht="38.25" customHeight="1">
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-    </row>
-    <row r="10" ht="38.25" customHeight="1">
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-    </row>
-    <row r="11" ht="38.25" customHeight="1">
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="30">
-        <v>28.0</v>
-      </c>
-      <c r="G11" s="30">
+      <c r="C16" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="19">
+        <v>8.0</v>
+      </c>
+      <c r="E16" s="19">
         <v>5.0</v>
       </c>
-      <c r="H11" s="30">
-        <v>33.0</v>
-      </c>
-    </row>
-    <row r="12" ht="38.25" customHeight="1">
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-    </row>
-    <row r="13" ht="38.25" customHeight="1">
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-    </row>
-    <row r="14" ht="38.25" customHeight="1">
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="19" t="s">
+      <c r="F16" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="19">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" ht="38.25" customHeight="1">
+      <c r="B17" s="19">
+        <v>12.0</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-    </row>
-    <row r="15" ht="38.25" customHeight="1">
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="19" t="s">
+      <c r="D17" s="19">
+        <v>8.0</v>
+      </c>
+      <c r="E17" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="19">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" ht="38.25" customHeight="1">
+      <c r="B18" s="19">
+        <v>13.0</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-    </row>
-    <row r="16" ht="38.25" customHeight="1">
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="19" t="s">
+      <c r="D18" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="E18" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="F18" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="G18" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="38.25" customHeight="1">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="19">
+        <v>12.0</v>
+      </c>
+      <c r="E19" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="F19" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="19">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" ht="38.25" customHeight="1">
+      <c r="B20" s="19">
+        <v>14.0</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="30">
-        <v>71.0</v>
-      </c>
-      <c r="G16" s="30">
-        <v>6.0</v>
-      </c>
-      <c r="H16" s="30">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="17" ht="38.25" customHeight="1">
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="19" t="s">
+      <c r="D20" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="E20" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="F20" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="G20" s="19">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" ht="38.25" customHeight="1">
+      <c r="B21" s="19">
+        <v>15.0</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-    </row>
-    <row r="18" ht="38.25" customHeight="1">
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="37" t="s">
+      <c r="D21" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="E21" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="F21" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="G21" s="19">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" ht="38.25" customHeight="1">
+      <c r="B22" s="19">
+        <v>16.0</v>
+      </c>
+      <c r="C22" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-    </row>
-    <row r="19" ht="38.25" customHeight="1">
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="19" t="s">
+      <c r="D22" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="E22" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="F22" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="G22" s="19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" ht="38.25" customHeight="1">
+      <c r="B23" s="19">
+        <v>17.0</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-    </row>
-    <row r="20" ht="38.25" customHeight="1">
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="19" t="s">
+      <c r="D23" s="19">
+        <v>18.0</v>
+      </c>
+      <c r="E23" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="F23" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="G23" s="19">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I23" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="J23" s="14"/>
+      <c r="K23" s="59">
+        <v>0.8935</v>
+      </c>
+    </row>
+    <row r="24" ht="38.25" customHeight="1">
+      <c r="B24" s="19">
+        <v>18.0</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-    </row>
-    <row r="21" ht="38.25" customHeight="1">
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="19" t="s">
+      <c r="D24" s="19">
+        <v>16.0</v>
+      </c>
+      <c r="E24" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="F24" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="G24" s="19">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I24" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="59">
+        <v>0.8935</v>
+      </c>
+    </row>
+    <row r="25" ht="38.25" customHeight="1">
+      <c r="B25" s="19">
+        <v>19.0</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-    </row>
-    <row r="22" ht="38.25" customHeight="1">
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="19" t="s">
+      <c r="D25" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="E25" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="F25" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="G25" s="19">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" ht="38.25" customHeight="1">
+      <c r="B26" s="19">
+        <v>20.0</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-    </row>
-    <row r="23" ht="38.25" customHeight="1">
-      <c r="B23" s="30">
-        <v>3.0</v>
-      </c>
-      <c r="C23" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" s="19" t="s">
+      <c r="D26" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="E26" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="F26" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="G26" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="38.25" customHeight="1">
+      <c r="B27" s="19"/>
+      <c r="C27" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="19">
+        <v>12.0</v>
+      </c>
+      <c r="E27" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="F27" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="G27" s="19">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" ht="38.25" customHeight="1">
+      <c r="B28" s="19">
+        <v>21.0</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="30">
-        <v>41.0</v>
-      </c>
-      <c r="G23" s="30">
+      <c r="D28" s="19">
+        <v>9.0</v>
+      </c>
+      <c r="E28" s="19">
         <v>0.0</v>
       </c>
-      <c r="H23" s="30">
-        <v>41.0</v>
-      </c>
-    </row>
-    <row r="24" ht="38.25" customHeight="1">
-      <c r="B24" s="34"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="19" t="s">
+      <c r="F28" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="G28" s="19">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" ht="38.25" customHeight="1">
+      <c r="B29" s="19">
+        <v>22.0</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-    </row>
-    <row r="25" ht="38.25" customHeight="1">
-      <c r="B25" s="34"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="19" t="s">
+      <c r="D29" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="E29" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="F29" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="G29" s="19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" ht="38.25" customHeight="1">
+      <c r="B30" s="19">
+        <v>23.0</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-    </row>
-    <row r="26" ht="38.25" customHeight="1">
-      <c r="B26" s="34"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="59" t="s">
+      <c r="D30" s="19">
+        <v>17.0</v>
+      </c>
+      <c r="E30" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="F30" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="G30" s="19">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" ht="38.25" customHeight="1">
+      <c r="B31" s="19">
+        <v>24.0</v>
+      </c>
+      <c r="C31" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-    </row>
-    <row r="27" ht="38.25" customHeight="1">
-      <c r="B27" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="63">
-        <f t="shared" ref="F27:H27" si="1">SUM(F4:F17)</f>
-        <v>160</v>
-      </c>
-      <c r="G27" s="63">
+      <c r="D31" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="E31" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="F31" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="G31" s="19">
         <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="H27" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" ht="38.25" customHeight="1">
+      <c r="B32" s="19">
+        <v>25.0</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="E32" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="F32" s="19">
+        <v>5.0</v>
+      </c>
+      <c r="G32" s="19">
         <f t="shared" si="1"/>
-        <v>183</v>
-      </c>
-    </row>
-    <row r="28" ht="38.25" customHeight="1"/>
-    <row r="29" ht="38.25" customHeight="1"/>
-    <row r="30" ht="38.25" customHeight="1"/>
-    <row r="31" ht="38.25" customHeight="1"/>
-    <row r="32" ht="38.25" customHeight="1"/>
-    <row r="33" ht="38.25" customHeight="1"/>
-    <row r="34" ht="38.25" customHeight="1"/>
-    <row r="35" ht="38.25" customHeight="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" ht="38.25" customHeight="1">
+      <c r="B33" s="19">
+        <v>26.0</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="E33" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="F33" s="19">
+        <v>5.0</v>
+      </c>
+      <c r="G33" s="19">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" ht="38.25" customHeight="1">
+      <c r="B34" s="19">
+        <v>27.0</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="E34" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="F34" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="G34" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" ht="38.25" customHeight="1">
+      <c r="B35" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="23"/>
+      <c r="D35" s="62">
+        <f t="shared" ref="D35:F35" si="2">SUM(D4:D34)</f>
+        <v>193</v>
+      </c>
+      <c r="E35" s="62">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="F35" s="63">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="G35" s="64">
+        <f t="shared" si="1"/>
+        <v>216</v>
+      </c>
+    </row>
     <row r="36" ht="38.25" customHeight="1"/>
     <row r="37" ht="38.25" customHeight="1"/>
     <row r="38" ht="38.25" customHeight="1"/>
@@ -8936,30 +9644,20 @@
     <row r="1012" ht="38.25" customHeight="1"/>
     <row r="1013" ht="38.25" customHeight="1"/>
     <row r="1014" ht="38.25" customHeight="1"/>
+    <row r="1015" ht="38.25" customHeight="1"/>
+    <row r="1016" ht="38.25" customHeight="1"/>
+    <row r="1017" ht="38.25" customHeight="1"/>
+    <row r="1018" ht="38.25" customHeight="1"/>
+    <row r="1019" ht="38.25" customHeight="1"/>
+    <row r="1020" ht="38.25" customHeight="1"/>
+    <row r="1021" ht="38.25" customHeight="1"/>
+    <row r="1022" ht="38.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="F5:F10"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="G11:G15"/>
-    <mergeCell ref="H11:H15"/>
-    <mergeCell ref="D16:D22"/>
-    <mergeCell ref="F16:F22"/>
-    <mergeCell ref="G16:G22"/>
-    <mergeCell ref="H16:H22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B5:B22"/>
-    <mergeCell ref="C5:C22"/>
-    <mergeCell ref="D5:D10"/>
-    <mergeCell ref="G5:G10"/>
-    <mergeCell ref="H5:H10"/>
-    <mergeCell ref="D11:D15"/>
+  <mergeCells count="4">
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8988,7 +9686,7 @@
   <sheetData>
     <row r="1" ht="27.0" customHeight="1">
       <c r="A1" s="65" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="66" t="s">
@@ -8999,11 +9697,11 @@
     </row>
     <row r="2" ht="27.0" customHeight="1">
       <c r="A2" s="68" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="69" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D2" s="47"/>
       <c r="E2" s="67"/>
@@ -9014,16 +9712,16 @@
         <v>98</v>
       </c>
       <c r="H2" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" ht="66.0" customHeight="1">
       <c r="A3" s="68" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="69" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D3" s="47"/>
       <c r="E3" s="67"/>
@@ -9042,7 +9740,7 @@
     </row>
     <row r="4" ht="27.0" customHeight="1">
       <c r="A4" s="72" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="73" t="s">
@@ -9058,34 +9756,34 @@
     </row>
     <row r="6" ht="27.0" customHeight="1">
       <c r="A6" s="74" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D6" s="75" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E6" s="74" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F6" s="75" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="G6" s="75" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="H6" s="75" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="I6" s="75" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="J6" s="75" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="K6" s="76"/>
       <c r="L6" s="76"/>
@@ -9106,7 +9804,7 @@
     </row>
     <row r="7" ht="35.25" customHeight="1">
       <c r="A7" s="77" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B7" s="78"/>
       <c r="C7" s="78"/>
@@ -9136,21 +9834,21 @@
     </row>
     <row r="8" ht="59.25" customHeight="1">
       <c r="A8" s="80" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B8" s="81" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C8" s="82"/>
       <c r="D8" s="83" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E8" s="81" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F8" s="84"/>
       <c r="G8" s="85" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H8" s="84"/>
       <c r="I8" s="84"/>
@@ -9174,21 +9872,21 @@
     </row>
     <row r="9" ht="59.25" customHeight="1">
       <c r="A9" s="87" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B9" s="88" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C9" s="89"/>
       <c r="D9" s="90" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E9" s="91" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F9" s="92"/>
       <c r="G9" s="93" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H9" s="94"/>
       <c r="I9" s="94"/>
@@ -9212,21 +9910,21 @@
     </row>
     <row r="10" ht="59.25" customHeight="1">
       <c r="A10" s="80" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B10" s="96" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C10" s="97"/>
       <c r="D10" s="83" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E10" s="81" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F10" s="98"/>
       <c r="G10" s="85" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H10" s="99"/>
       <c r="I10" s="99"/>
@@ -9250,23 +9948,23 @@
     </row>
     <row r="11" ht="59.25" customHeight="1">
       <c r="A11" s="87" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B11" s="88" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C11" s="88" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D11" s="90" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E11" s="90" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F11" s="94"/>
       <c r="G11" s="93" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H11" s="94"/>
       <c r="I11" s="94"/>
@@ -9290,23 +9988,23 @@
     </row>
     <row r="12" ht="59.25" customHeight="1">
       <c r="A12" s="80" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B12" s="96" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C12" s="96" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D12" s="83" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E12" s="83" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="F12" s="99"/>
       <c r="G12" s="85" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H12" s="99"/>
       <c r="I12" s="99"/>
@@ -9330,21 +10028,21 @@
     </row>
     <row r="13" ht="59.25" customHeight="1">
       <c r="A13" s="87" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B13" s="88" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C13" s="100"/>
       <c r="D13" s="90" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E13" s="90" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F13" s="94"/>
       <c r="G13" s="93" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H13" s="94"/>
       <c r="I13" s="94"/>
@@ -9368,23 +10066,23 @@
     </row>
     <row r="14" ht="59.25" customHeight="1">
       <c r="A14" s="80" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B14" s="96" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C14" s="96" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D14" s="83" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E14" s="83" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="F14" s="99"/>
       <c r="G14" s="85" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H14" s="99"/>
       <c r="I14" s="99"/>
@@ -9408,21 +10106,21 @@
     </row>
     <row r="15" ht="59.25" customHeight="1">
       <c r="A15" s="87" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B15" s="88" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C15" s="100"/>
       <c r="D15" s="90" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E15" s="90" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F15" s="94"/>
       <c r="G15" s="93" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H15" s="94"/>
       <c r="I15" s="94"/>
@@ -9446,19 +10144,19 @@
     </row>
     <row r="16" ht="59.25" customHeight="1">
       <c r="A16" s="80" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B16" s="96" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C16" s="101"/>
       <c r="D16" s="81" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E16" s="81"/>
       <c r="F16" s="99"/>
       <c r="G16" s="85" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H16" s="99"/>
       <c r="I16" s="99"/>
@@ -9482,23 +10180,23 @@
     </row>
     <row r="17" ht="59.25" customHeight="1">
       <c r="A17" s="87" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B17" s="88" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C17" s="88" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D17" s="90" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E17" s="91" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F17" s="94"/>
       <c r="G17" s="93" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H17" s="94"/>
       <c r="I17" s="94"/>
@@ -9522,23 +10220,23 @@
     </row>
     <row r="18" ht="59.25" customHeight="1">
       <c r="A18" s="80" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B18" s="96" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C18" s="96" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D18" s="83" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E18" s="81" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="F18" s="99"/>
       <c r="G18" s="85" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H18" s="99"/>
       <c r="I18" s="99"/>
@@ -9562,23 +10260,23 @@
     </row>
     <row r="19" ht="59.25" customHeight="1">
       <c r="A19" s="87" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B19" s="88" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C19" s="88" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D19" s="90" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E19" s="91" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="F19" s="94"/>
       <c r="G19" s="93" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H19" s="94"/>
       <c r="I19" s="94"/>
@@ -9602,21 +10300,21 @@
     </row>
     <row r="20" ht="59.25" customHeight="1">
       <c r="A20" s="80" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B20" s="96" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C20" s="101"/>
       <c r="D20" s="83" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E20" s="83" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="F20" s="99"/>
       <c r="G20" s="85" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H20" s="99"/>
       <c r="I20" s="99"/>
@@ -9640,23 +10338,23 @@
     </row>
     <row r="21" ht="59.25" customHeight="1">
       <c r="A21" s="87" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B21" s="88" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C21" s="88" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D21" s="90" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E21" s="90" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F21" s="102"/>
       <c r="G21" s="93" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H21" s="94"/>
       <c r="I21" s="94"/>
@@ -9680,21 +10378,21 @@
     </row>
     <row r="22" ht="59.25" customHeight="1">
       <c r="A22" s="80" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B22" s="96" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C22" s="97"/>
       <c r="D22" s="103" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E22" s="81" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F22" s="99"/>
       <c r="G22" s="85" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H22" s="99"/>
       <c r="I22" s="99"/>
@@ -15357,22 +16055,22 @@
   <sheetData>
     <row r="1" ht="38.25" customHeight="1">
       <c r="A1" s="65" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="66" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="D1" s="43"/>
       <c r="E1" s="67"/>
     </row>
     <row r="2" ht="148.5" customHeight="1">
       <c r="A2" s="109" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="110" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="D2" s="111"/>
       <c r="E2" s="67"/>
@@ -15401,16 +16099,16 @@
         <v>98</v>
       </c>
       <c r="H4" s="117" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" ht="70.5" customHeight="1">
       <c r="A5" s="68" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="118" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="D5" s="47"/>
       <c r="E5" s="67"/>
@@ -15429,7 +16127,7 @@
     </row>
     <row r="6" ht="27.0" customHeight="1">
       <c r="A6" s="72" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="73" t="s">
@@ -15445,34 +16143,34 @@
     </row>
     <row r="8" ht="27.0" customHeight="1">
       <c r="A8" s="74" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B8" s="75" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C8" s="74" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D8" s="75" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E8" s="74" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F8" s="75" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="G8" s="75" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="H8" s="75" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="I8" s="75" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="J8" s="75" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="K8" s="76"/>
       <c r="L8" s="76"/>
@@ -15493,7 +16191,7 @@
     </row>
     <row r="9" ht="35.25" customHeight="1">
       <c r="A9" s="77" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B9" s="78"/>
       <c r="C9" s="78"/>
@@ -15523,23 +16221,23 @@
     </row>
     <row r="10" ht="59.25" customHeight="1">
       <c r="A10" s="80" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B10" s="96" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C10" s="96" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D10" s="83" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E10" s="83" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F10" s="119"/>
       <c r="G10" s="85" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H10" s="99"/>
       <c r="I10" s="99"/>
@@ -15563,21 +16261,21 @@
     </row>
     <row r="11" ht="59.25" customHeight="1">
       <c r="A11" s="87" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B11" s="88" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C11" s="100"/>
       <c r="D11" s="91" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E11" s="91" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F11" s="120"/>
       <c r="G11" s="93" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H11" s="94"/>
       <c r="I11" s="94"/>
@@ -15601,21 +16299,21 @@
     </row>
     <row r="12" ht="59.25" customHeight="1">
       <c r="A12" s="80" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B12" s="96" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C12" s="96"/>
       <c r="D12" s="83" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E12" s="83" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="F12" s="99"/>
       <c r="G12" s="85" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H12" s="99"/>
       <c r="I12" s="99"/>
@@ -15639,21 +16337,21 @@
     </row>
     <row r="13" ht="59.25" customHeight="1">
       <c r="A13" s="87" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B13" s="88" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C13" s="88"/>
       <c r="D13" s="90" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E13" s="90" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F13" s="94"/>
       <c r="G13" s="93" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H13" s="94"/>
       <c r="I13" s="94"/>
@@ -15677,21 +16375,21 @@
     </row>
     <row r="14" ht="59.25" customHeight="1">
       <c r="A14" s="80" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B14" s="96" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C14" s="101"/>
       <c r="D14" s="83" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E14" s="83" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="F14" s="99"/>
       <c r="G14" s="85" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H14" s="99"/>
       <c r="I14" s="99"/>
@@ -15715,21 +16413,21 @@
     </row>
     <row r="15" ht="59.25" customHeight="1">
       <c r="A15" s="87" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B15" s="88" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C15" s="88"/>
       <c r="D15" s="90" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="E15" s="90" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="F15" s="94"/>
       <c r="G15" s="93" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H15" s="94"/>
       <c r="I15" s="94"/>
@@ -15753,21 +16451,21 @@
     </row>
     <row r="16" ht="59.25" customHeight="1">
       <c r="A16" s="80" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B16" s="96" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C16" s="101"/>
       <c r="D16" s="83" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E16" s="81" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="F16" s="99"/>
       <c r="G16" s="85" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H16" s="99"/>
       <c r="I16" s="99"/>
@@ -15791,21 +16489,21 @@
     </row>
     <row r="17" ht="59.25" customHeight="1">
       <c r="A17" s="87" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B17" s="88" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C17" s="100"/>
       <c r="D17" s="90" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="E17" s="91" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="F17" s="94"/>
       <c r="G17" s="93" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H17" s="94"/>
       <c r="I17" s="94"/>
@@ -15829,23 +16527,23 @@
     </row>
     <row r="18" ht="59.25" customHeight="1">
       <c r="A18" s="80" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B18" s="96" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C18" s="96" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D18" s="83" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="E18" s="83" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F18" s="99"/>
       <c r="G18" s="85" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H18" s="99"/>
       <c r="I18" s="99"/>
@@ -15869,21 +16567,21 @@
     </row>
     <row r="19" ht="59.25" customHeight="1">
       <c r="A19" s="87" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B19" s="88" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C19" s="88"/>
       <c r="D19" s="90" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E19" s="90" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="F19" s="94"/>
       <c r="G19" s="93" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H19" s="94"/>
       <c r="I19" s="94"/>
@@ -15907,21 +16605,21 @@
     </row>
     <row r="20" ht="59.25" customHeight="1">
       <c r="A20" s="80" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B20" s="96" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C20" s="96"/>
       <c r="D20" s="83" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="E20" s="83" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="F20" s="99"/>
       <c r="G20" s="85" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H20" s="99"/>
       <c r="I20" s="99"/>
@@ -15945,21 +16643,21 @@
     </row>
     <row r="21" ht="59.25" customHeight="1">
       <c r="A21" s="87" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B21" s="88" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C21" s="100"/>
       <c r="D21" s="90" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="E21" s="90" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="F21" s="94"/>
       <c r="G21" s="93" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H21" s="94"/>
       <c r="I21" s="94"/>
@@ -15983,17 +16681,17 @@
     </row>
     <row r="22" ht="59.25" customHeight="1">
       <c r="A22" s="80" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B22" s="96" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C22" s="96"/>
       <c r="D22" s="83"/>
       <c r="E22" s="83"/>
       <c r="F22" s="121"/>
       <c r="G22" s="85" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H22" s="99"/>
       <c r="I22" s="99"/>
@@ -16017,21 +16715,21 @@
     </row>
     <row r="23" ht="59.25" customHeight="1">
       <c r="A23" s="87" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B23" s="88" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C23" s="100"/>
       <c r="D23" s="90" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="E23" s="90" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="F23" s="94"/>
       <c r="G23" s="93" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H23" s="94"/>
       <c r="I23" s="94"/>
@@ -16055,21 +16753,21 @@
     </row>
     <row r="24" ht="59.25" customHeight="1">
       <c r="A24" s="80" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B24" s="96" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C24" s="101"/>
       <c r="D24" s="83" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E24" s="83" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F24" s="99"/>
       <c r="G24" s="85" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H24" s="99"/>
       <c r="I24" s="99"/>
@@ -16093,21 +16791,21 @@
     </row>
     <row r="25" ht="59.25" customHeight="1">
       <c r="A25" s="87" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B25" s="88" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C25" s="89"/>
       <c r="D25" s="122" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E25" s="122" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="F25" s="94"/>
       <c r="G25" s="93" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H25" s="94"/>
       <c r="I25" s="94"/>
@@ -16131,7 +16829,7 @@
     </row>
     <row r="26" ht="51.0" customHeight="1">
       <c r="A26" s="123" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B26" s="124"/>
       <c r="C26" s="124"/>
@@ -16161,23 +16859,23 @@
     </row>
     <row r="27" ht="56.25" customHeight="1">
       <c r="A27" s="126" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B27" s="88" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C27" s="88" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="D27" s="88" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="E27" s="88" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="F27" s="92"/>
       <c r="G27" s="127" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H27" s="94"/>
       <c r="I27" s="127"/>
@@ -16201,23 +16899,23 @@
     </row>
     <row r="28" ht="58.5" customHeight="1">
       <c r="A28" s="128" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B28" s="96" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C28" s="96" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="D28" s="96" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="E28" s="96" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="F28" s="99"/>
       <c r="G28" s="129" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H28" s="99"/>
       <c r="I28" s="99"/>
@@ -16241,23 +16939,23 @@
     </row>
     <row r="29" ht="74.25" customHeight="1">
       <c r="A29" s="126" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B29" s="88" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C29" s="88" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="D29" s="88" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E29" s="88" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="F29" s="94"/>
       <c r="G29" s="127" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H29" s="94"/>
       <c r="I29" s="94"/>
@@ -16281,23 +16979,23 @@
     </row>
     <row r="30" ht="98.25" customHeight="1">
       <c r="A30" s="128" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B30" s="96" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C30" s="96" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D30" s="96" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="E30" s="96" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="F30" s="99"/>
       <c r="G30" s="129" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H30" s="99"/>
       <c r="I30" s="99"/>
@@ -16321,7 +17019,7 @@
     </row>
     <row r="31" ht="46.5" customHeight="1">
       <c r="A31" s="130" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B31" s="131"/>
       <c r="C31" s="131"/>
@@ -16351,23 +17049,23 @@
     </row>
     <row r="32" ht="137.25" customHeight="1">
       <c r="A32" s="128" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="B32" s="96" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C32" s="96" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D32" s="96" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E32" s="96" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="F32" s="99"/>
       <c r="G32" s="129" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H32" s="99"/>
       <c r="I32" s="99"/>
@@ -16391,23 +17089,23 @@
     </row>
     <row r="33" ht="134.25" customHeight="1">
       <c r="A33" s="126" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B33" s="88" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C33" s="88" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="D33" s="88" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="E33" s="88" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="F33" s="94"/>
       <c r="G33" s="127" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H33" s="94"/>
       <c r="I33" s="94"/>
@@ -16431,7 +17129,7 @@
     </row>
     <row r="34" ht="46.5" customHeight="1">
       <c r="A34" s="130" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B34" s="124"/>
       <c r="C34" s="124"/>
@@ -16461,21 +17159,21 @@
     </row>
     <row r="35" ht="61.5" customHeight="1">
       <c r="A35" s="133" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B35" s="134" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C35" s="135"/>
       <c r="D35" s="134" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E35" s="134" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F35" s="136"/>
       <c r="G35" s="127" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H35" s="136"/>
       <c r="I35" s="136"/>
@@ -16499,21 +17197,21 @@
     </row>
     <row r="36" ht="61.5" customHeight="1">
       <c r="A36" s="138" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B36" s="139" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C36" s="140"/>
       <c r="D36" s="139" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E36" s="139" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="F36" s="141"/>
       <c r="G36" s="129" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H36" s="141"/>
       <c r="I36" s="141"/>
@@ -16537,21 +17235,21 @@
     </row>
     <row r="37" ht="61.5" customHeight="1">
       <c r="A37" s="133" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B37" s="134" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C37" s="135"/>
       <c r="D37" s="134" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E37" s="134" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="F37" s="136"/>
       <c r="G37" s="127" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H37" s="136"/>
       <c r="I37" s="136"/>
@@ -16575,21 +17273,21 @@
     </row>
     <row r="38" ht="61.5" customHeight="1">
       <c r="A38" s="138" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B38" s="139" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C38" s="140"/>
       <c r="D38" s="139" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E38" s="139" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F38" s="141"/>
       <c r="G38" s="129" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H38" s="141"/>
       <c r="I38" s="141"/>
@@ -16613,19 +17311,19 @@
     </row>
     <row r="39" ht="61.5" customHeight="1">
       <c r="A39" s="133" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B39" s="134" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C39" s="135"/>
       <c r="D39" s="134" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="E39" s="135"/>
       <c r="F39" s="136"/>
       <c r="G39" s="127" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H39" s="136"/>
       <c r="I39" s="136"/>
@@ -16649,21 +17347,21 @@
     </row>
     <row r="40" ht="61.5" customHeight="1">
       <c r="A40" s="138" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="B40" s="139" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C40" s="140"/>
       <c r="D40" s="139" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E40" s="139" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="F40" s="141"/>
       <c r="G40" s="129" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H40" s="141"/>
       <c r="I40" s="141"/>
@@ -16687,21 +17385,21 @@
     </row>
     <row r="41" ht="61.5" customHeight="1">
       <c r="A41" s="133" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B41" s="134" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C41" s="135"/>
       <c r="D41" s="134" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="E41" s="134" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="F41" s="136"/>
       <c r="G41" s="127" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H41" s="136"/>
       <c r="I41" s="136"/>
@@ -16725,7 +17423,7 @@
     </row>
     <row r="42" ht="46.5" customHeight="1">
       <c r="A42" s="130" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B42" s="124"/>
       <c r="C42" s="124"/>
@@ -16755,23 +17453,23 @@
     </row>
     <row r="43" ht="69.75" customHeight="1">
       <c r="A43" s="133" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B43" s="134" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="C43" s="134" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="D43" s="134" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="E43" s="134" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="F43" s="136"/>
       <c r="G43" s="144" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H43" s="136"/>
       <c r="I43" s="136"/>
@@ -16795,23 +17493,23 @@
     </row>
     <row r="44" ht="69.75" customHeight="1">
       <c r="A44" s="138" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B44" s="139" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C44" s="139" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="D44" s="139" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="E44" s="139" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F44" s="141"/>
       <c r="G44" s="145" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H44" s="141"/>
       <c r="I44" s="141"/>
@@ -16835,23 +17533,23 @@
     </row>
     <row r="45" ht="69.75" customHeight="1">
       <c r="A45" s="133" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B45" s="134" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="C45" s="134" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="D45" s="134" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="E45" s="134" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="F45" s="136"/>
       <c r="G45" s="144" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H45" s="136"/>
       <c r="I45" s="136"/>
@@ -16875,23 +17573,23 @@
     </row>
     <row r="46" ht="87.75" customHeight="1">
       <c r="A46" s="138" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B46" s="139" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C46" s="139" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="D46" s="139" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="E46" s="139" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="F46" s="141"/>
       <c r="G46" s="145" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H46" s="141"/>
       <c r="I46" s="141"/>
@@ -16915,23 +17613,23 @@
     </row>
     <row r="47" ht="84.0" customHeight="1">
       <c r="A47" s="133" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B47" s="134" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C47" s="134" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="D47" s="134" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="E47" s="134" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="F47" s="136"/>
       <c r="G47" s="144" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H47" s="136"/>
       <c r="I47" s="136"/>
@@ -16955,21 +17653,21 @@
     </row>
     <row r="48" ht="69.75" customHeight="1">
       <c r="A48" s="138" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B48" s="139" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C48" s="140"/>
       <c r="D48" s="139" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E48" s="139" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="F48" s="141"/>
       <c r="G48" s="145" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H48" s="141"/>
       <c r="I48" s="141"/>
@@ -16993,23 +17691,23 @@
     </row>
     <row r="49" ht="127.5" customHeight="1">
       <c r="A49" s="133" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B49" s="134" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C49" s="134" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="D49" s="134" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="E49" s="134" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="F49" s="136"/>
       <c r="G49" s="144" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H49" s="136"/>
       <c r="I49" s="136"/>
@@ -17033,23 +17731,23 @@
     </row>
     <row r="50" ht="192.75" customHeight="1">
       <c r="A50" s="138" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B50" s="139" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C50" s="139" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="D50" s="139" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="E50" s="139" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="F50" s="141"/>
       <c r="G50" s="145" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H50" s="141"/>
       <c r="I50" s="141"/>
@@ -17073,7 +17771,7 @@
     </row>
     <row r="51" ht="46.5" customHeight="1">
       <c r="A51" s="130" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B51" s="131"/>
       <c r="C51" s="131"/>
@@ -17103,23 +17801,23 @@
     </row>
     <row r="52" ht="72.0" customHeight="1">
       <c r="A52" s="138" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B52" s="96" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C52" s="146" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="D52" s="146" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="E52" s="146" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="F52" s="141"/>
       <c r="G52" s="145" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H52" s="141"/>
       <c r="I52" s="141"/>
@@ -17143,23 +17841,23 @@
     </row>
     <row r="53" ht="72.0" customHeight="1">
       <c r="A53" s="133" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B53" s="88" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C53" s="147" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="D53" s="147" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="E53" s="147" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F53" s="136"/>
       <c r="G53" s="144" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H53" s="136"/>
       <c r="I53" s="136"/>
@@ -17183,23 +17881,23 @@
     </row>
     <row r="54" ht="72.0" customHeight="1">
       <c r="A54" s="138" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B54" s="96" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C54" s="146" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="D54" s="146" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="E54" s="146" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="F54" s="141"/>
       <c r="G54" s="145" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H54" s="141"/>
       <c r="I54" s="141"/>
@@ -17223,23 +17921,23 @@
     </row>
     <row r="55" ht="72.0" customHeight="1">
       <c r="A55" s="133" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B55" s="88" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C55" s="147" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="D55" s="147" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="E55" s="147" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="F55" s="136"/>
       <c r="G55" s="144" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H55" s="136"/>
       <c r="I55" s="136"/>
@@ -17263,23 +17961,23 @@
     </row>
     <row r="56" ht="72.0" customHeight="1">
       <c r="A56" s="138" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B56" s="96" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C56" s="96" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="D56" s="146" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="E56" s="146" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="F56" s="141"/>
       <c r="G56" s="145" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H56" s="141"/>
       <c r="I56" s="141"/>
@@ -17303,23 +18001,23 @@
     </row>
     <row r="57" ht="72.0" customHeight="1">
       <c r="A57" s="133" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B57" s="88" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C57" s="88" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="D57" s="147" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E57" s="147" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="F57" s="136"/>
       <c r="G57" s="144" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H57" s="136"/>
       <c r="I57" s="136"/>
@@ -17343,23 +18041,23 @@
     </row>
     <row r="58" ht="122.25" customHeight="1">
       <c r="A58" s="138" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B58" s="96" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C58" s="146" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="D58" s="146" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="E58" s="146" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="F58" s="141"/>
       <c r="G58" s="145" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H58" s="141"/>
       <c r="I58" s="141"/>
@@ -17383,23 +18081,23 @@
     </row>
     <row r="59" ht="192.0" customHeight="1">
       <c r="A59" s="133" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B59" s="88" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C59" s="88" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="D59" s="88" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="E59" s="88" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="F59" s="136"/>
       <c r="G59" s="144" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H59" s="136"/>
       <c r="I59" s="136"/>
@@ -17423,7 +18121,7 @@
     </row>
     <row r="60" ht="46.5" customHeight="1">
       <c r="A60" s="130" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B60" s="124"/>
       <c r="C60" s="124"/>
@@ -17453,23 +18151,23 @@
     </row>
     <row r="61" ht="136.5" customHeight="1">
       <c r="A61" s="133" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B61" s="88" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C61" s="88" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D61" s="88" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="E61" s="88" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="F61" s="136"/>
       <c r="G61" s="144" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H61" s="136"/>
       <c r="I61" s="136"/>
@@ -17493,7 +18191,7 @@
     </row>
     <row r="62" ht="46.5" customHeight="1">
       <c r="A62" s="130" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="B62" s="124"/>
       <c r="C62" s="124"/>
@@ -17523,23 +18221,23 @@
     </row>
     <row r="63" ht="174.75" customHeight="1">
       <c r="A63" s="126" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B63" s="88" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="C63" s="88" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="D63" s="88" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="E63" s="88" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="F63" s="94"/>
       <c r="G63" s="127" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
@@ -17563,7 +18261,7 @@
     </row>
     <row r="64" ht="46.5" customHeight="1">
       <c r="A64" s="148" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="B64" s="124"/>
       <c r="C64" s="124"/>
@@ -17593,23 +18291,23 @@
     </row>
     <row r="65" ht="51.75" customHeight="1">
       <c r="A65" s="126" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="B65" s="147" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C65" s="100" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D65" s="147" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E65" s="147" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F65" s="94"/>
       <c r="G65" s="127" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
@@ -17633,21 +18331,21 @@
     </row>
     <row r="66" ht="51.75" customHeight="1">
       <c r="A66" s="128" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="B66" s="101" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C66" s="101"/>
       <c r="D66" s="96" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="E66" s="96" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="F66" s="99"/>
       <c r="G66" s="129" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H66" s="99"/>
       <c r="I66" s="99"/>
@@ -17671,21 +18369,21 @@
     </row>
     <row r="67" ht="51.75" customHeight="1">
       <c r="A67" s="126" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B67" s="147" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C67" s="147"/>
       <c r="D67" s="88" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="E67" s="88" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F67" s="94"/>
       <c r="G67" s="127" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
@@ -17709,21 +18407,21 @@
     </row>
     <row r="68" ht="51.75" customHeight="1">
       <c r="A68" s="128" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="B68" s="101" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C68" s="101"/>
       <c r="D68" s="146" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E68" s="146" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F68" s="99"/>
       <c r="G68" s="129" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H68" s="99"/>
       <c r="I68" s="99"/>
@@ -17747,21 +18445,21 @@
     </row>
     <row r="69" ht="51.75" customHeight="1">
       <c r="A69" s="126" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="B69" s="147" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C69" s="100"/>
       <c r="D69" s="147" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E69" s="147" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="F69" s="94"/>
       <c r="G69" s="127" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
@@ -17785,21 +18483,21 @@
     </row>
     <row r="70" ht="51.75" customHeight="1">
       <c r="A70" s="128" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B70" s="101" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C70" s="101"/>
       <c r="D70" s="96" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="E70" s="96" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="F70" s="99"/>
       <c r="G70" s="129" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H70" s="99"/>
       <c r="I70" s="99"/>
@@ -17823,23 +18521,23 @@
     </row>
     <row r="71" ht="51.75" customHeight="1">
       <c r="A71" s="126" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B71" s="147" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C71" s="100" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D71" s="147" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="E71" s="147" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F71" s="94"/>
       <c r="G71" s="127" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H71" s="94"/>
       <c r="I71" s="94"/>
@@ -17863,21 +18561,21 @@
     </row>
     <row r="72" ht="51.75" customHeight="1">
       <c r="A72" s="128" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B72" s="149" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C72" s="150"/>
       <c r="D72" s="81" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="E72" s="81" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="F72" s="84"/>
       <c r="G72" s="85" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H72" s="84"/>
       <c r="I72" s="84"/>
@@ -17901,21 +18599,21 @@
     </row>
     <row r="73" ht="51.75" customHeight="1">
       <c r="A73" s="126" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="B73" s="151" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C73" s="152"/>
       <c r="D73" s="91" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="E73" s="91" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="F73" s="153"/>
       <c r="G73" s="93" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H73" s="153"/>
       <c r="I73" s="153"/>
@@ -17939,7 +18637,7 @@
     </row>
     <row r="74" ht="51.75" customHeight="1">
       <c r="A74" s="154" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B74" s="155"/>
       <c r="C74" s="155"/>
@@ -17969,23 +18667,23 @@
     </row>
     <row r="75" ht="51.75" customHeight="1">
       <c r="A75" s="87" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B75" s="91" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="C75" s="91" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="D75" s="91" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="E75" s="91" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F75" s="153"/>
       <c r="G75" s="93" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H75" s="153"/>
       <c r="I75" s="153"/>
@@ -18009,23 +18707,23 @@
     </row>
     <row r="76" ht="51.75" customHeight="1">
       <c r="A76" s="80" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B76" s="81" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C76" s="81" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="D76" s="81" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="E76" s="81" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F76" s="84"/>
       <c r="G76" s="85" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H76" s="84"/>
       <c r="I76" s="84"/>
@@ -18049,23 +18747,23 @@
     </row>
     <row r="77" ht="51.75" customHeight="1">
       <c r="A77" s="87" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B77" s="91" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="C77" s="91" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="D77" s="91" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="E77" s="91" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="F77" s="153"/>
       <c r="G77" s="93" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H77" s="153"/>
       <c r="I77" s="153"/>
@@ -18089,23 +18787,23 @@
     </row>
     <row r="78" ht="51.75" customHeight="1">
       <c r="A78" s="80" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="B78" s="81" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="C78" s="81" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="D78" s="81" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="E78" s="81" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="F78" s="84"/>
       <c r="G78" s="85" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H78" s="84"/>
       <c r="I78" s="84"/>
@@ -18129,7 +18827,7 @@
     </row>
     <row r="79" ht="51.75" customHeight="1">
       <c r="A79" s="154" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="B79" s="157"/>
       <c r="C79" s="157"/>
@@ -18159,23 +18857,23 @@
     </row>
     <row r="80" ht="137.25" customHeight="1">
       <c r="A80" s="128" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="B80" s="96" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="C80" s="96" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D80" s="96" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E80" s="96" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="F80" s="99"/>
       <c r="G80" s="129" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H80" s="99"/>
       <c r="I80" s="99"/>
@@ -18199,23 +18897,23 @@
     </row>
     <row r="81" ht="134.25" customHeight="1">
       <c r="A81" s="126" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B81" s="88" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C81" s="88" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="D81" s="88" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="E81" s="88" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="F81" s="94"/>
       <c r="G81" s="127" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H81" s="94"/>
       <c r="I81" s="94"/>
@@ -18239,7 +18937,7 @@
     </row>
     <row r="82" ht="51.75" customHeight="1">
       <c r="A82" s="154" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="B82" s="155"/>
       <c r="C82" s="155"/>
@@ -18269,23 +18967,23 @@
     </row>
     <row r="83" ht="56.25" customHeight="1">
       <c r="A83" s="87" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="B83" s="88" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="C83" s="147" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="D83" s="147" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="E83" s="147" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="F83" s="94"/>
       <c r="G83" s="127" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H83" s="94"/>
       <c r="I83" s="94"/>
@@ -18309,23 +19007,23 @@
     </row>
     <row r="84" ht="56.25" customHeight="1">
       <c r="A84" s="80" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="B84" s="81" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C84" s="149" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="D84" s="149" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="E84" s="149" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F84" s="84"/>
       <c r="G84" s="129" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H84" s="84"/>
       <c r="I84" s="84"/>
@@ -18349,23 +19047,23 @@
     </row>
     <row r="85" ht="71.25" customHeight="1">
       <c r="A85" s="87" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B85" s="88" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="C85" s="147" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="D85" s="88" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="E85" s="88" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F85" s="94"/>
       <c r="G85" s="127" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H85" s="94"/>
       <c r="I85" s="94"/>
@@ -18389,23 +19087,23 @@
     </row>
     <row r="86" ht="70.5" customHeight="1">
       <c r="A86" s="80" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B86" s="96" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C86" s="96" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="D86" s="146" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="E86" s="146" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="F86" s="99"/>
       <c r="G86" s="129" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H86" s="99"/>
       <c r="I86" s="99"/>
@@ -18429,29 +19127,29 @@
     </row>
     <row r="87" ht="74.25" customHeight="1">
       <c r="A87" s="87" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B87" s="88" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="C87" s="88" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="D87" s="88" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="E87" s="88" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="F87" s="159" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="G87" s="127" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="H87" s="94"/>
       <c r="I87" s="126" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="J87" s="94"/>
       <c r="K87" s="95"/>
@@ -18473,29 +19171,29 @@
     </row>
     <row r="88" ht="74.25" customHeight="1">
       <c r="A88" s="80" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="B88" s="96" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="C88" s="96" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="D88" s="96" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="E88" s="96" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="F88" s="160" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="G88" s="129" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="H88" s="99"/>
       <c r="I88" s="128" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="J88" s="99"/>
       <c r="K88" s="86"/>
@@ -18517,21 +19215,21 @@
     </row>
     <row r="89" ht="56.25" customHeight="1">
       <c r="A89" s="87" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="B89" s="88" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C89" s="88"/>
       <c r="D89" s="88" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="E89" s="88" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="F89" s="120"/>
       <c r="G89" s="127" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H89" s="94"/>
       <c r="I89" s="126"/>
@@ -18555,27 +19253,27 @@
     </row>
     <row r="90" ht="116.25" customHeight="1">
       <c r="A90" s="80" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B90" s="139" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="C90" s="139"/>
       <c r="D90" s="139" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="E90" s="139" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="F90" s="160" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="G90" s="129" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="H90" s="99"/>
       <c r="I90" s="128" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="J90" s="99"/>
       <c r="K90" s="86"/>
@@ -18597,23 +19295,23 @@
     </row>
     <row r="91" ht="116.25" customHeight="1">
       <c r="A91" s="87" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="B91" s="134" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C91" s="134" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="D91" s="134" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="E91" s="134" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="F91" s="120"/>
       <c r="G91" s="127" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H91" s="94"/>
       <c r="I91" s="126"/>
@@ -18637,23 +19335,23 @@
     </row>
     <row r="92" ht="116.25" customHeight="1">
       <c r="A92" s="80" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="B92" s="139" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="C92" s="139" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="D92" s="139" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="E92" s="139" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="F92" s="98"/>
       <c r="G92" s="129" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H92" s="99"/>
       <c r="I92" s="128"/>
@@ -18677,29 +19375,29 @@
     </row>
     <row r="93" ht="116.25" customHeight="1">
       <c r="A93" s="87" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B93" s="134" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="C93" s="134" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="D93" s="134" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="E93" s="134" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="F93" s="159" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="G93" s="127" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="H93" s="94"/>
       <c r="I93" s="126" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="J93" s="94"/>
       <c r="K93" s="95"/>
@@ -18721,23 +19419,23 @@
     </row>
     <row r="94" ht="116.25" customHeight="1">
       <c r="A94" s="80" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="B94" s="139" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C94" s="139" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="D94" s="139" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="E94" s="139" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="F94" s="98"/>
       <c r="G94" s="129" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H94" s="99"/>
       <c r="I94" s="128"/>
@@ -18761,29 +19459,29 @@
     </row>
     <row r="95" ht="128.25" customHeight="1">
       <c r="A95" s="87" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="B95" s="134" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="C95" s="134" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="D95" s="134" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="E95" s="134" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="F95" s="159" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="G95" s="127" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="H95" s="94"/>
       <c r="I95" s="126" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="J95" s="94"/>
       <c r="K95" s="95"/>
@@ -18805,7 +19503,7 @@
     </row>
     <row r="96" ht="51.75" customHeight="1">
       <c r="A96" s="154" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="B96" s="155"/>
       <c r="C96" s="155"/>
@@ -18835,23 +19533,23 @@
     </row>
     <row r="97" ht="57.75" customHeight="1">
       <c r="A97" s="87" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="B97" s="88" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C97" s="147" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="D97" s="147" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="E97" s="147" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="F97" s="120"/>
       <c r="G97" s="127" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H97" s="94"/>
       <c r="I97" s="126"/>
@@ -18875,23 +19573,23 @@
     </row>
     <row r="98" ht="57.75" customHeight="1">
       <c r="A98" s="80" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="B98" s="96" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C98" s="146" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="D98" s="146" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="E98" s="146" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F98" s="98"/>
       <c r="G98" s="129" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H98" s="99"/>
       <c r="I98" s="128"/>
@@ -18915,23 +19613,23 @@
     </row>
     <row r="99" ht="75.0" customHeight="1">
       <c r="A99" s="87" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="B99" s="88" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C99" s="147" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="D99" s="147" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="E99" s="147" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="F99" s="120"/>
       <c r="G99" s="127" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H99" s="94"/>
       <c r="I99" s="126"/>
@@ -18955,23 +19653,23 @@
     </row>
     <row r="100" ht="70.5" customHeight="1">
       <c r="A100" s="80" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="B100" s="96" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C100" s="96" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="D100" s="146" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="E100" s="146" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="F100" s="98"/>
       <c r="G100" s="129" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H100" s="99"/>
       <c r="I100" s="128"/>
@@ -18995,23 +19693,23 @@
     </row>
     <row r="101" ht="75.0" customHeight="1">
       <c r="A101" s="87" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="B101" s="88" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C101" s="88" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="D101" s="147" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="E101" s="147" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="F101" s="120"/>
       <c r="G101" s="127" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H101" s="94"/>
       <c r="I101" s="126"/>
@@ -19035,23 +19733,23 @@
     </row>
     <row r="102" ht="66.0" customHeight="1">
       <c r="A102" s="80" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="B102" s="96" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C102" s="96" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="D102" s="146" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E102" s="146" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="F102" s="98"/>
       <c r="G102" s="129" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H102" s="99"/>
       <c r="I102" s="128"/>
@@ -19075,23 +19773,23 @@
     </row>
     <row r="103" ht="114.0" customHeight="1">
       <c r="A103" s="87" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="B103" s="88" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C103" s="88" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="D103" s="147" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="E103" s="147" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="F103" s="120"/>
       <c r="G103" s="127" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H103" s="94"/>
       <c r="I103" s="126"/>
@@ -19115,23 +19813,23 @@
     </row>
     <row r="104" ht="152.25" customHeight="1">
       <c r="A104" s="80" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="B104" s="96" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C104" s="96" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="D104" s="96" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="E104" s="96" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="F104" s="98"/>
       <c r="G104" s="129" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H104" s="99"/>
       <c r="I104" s="128"/>
@@ -19155,7 +19853,7 @@
     </row>
     <row r="105" ht="51.75" customHeight="1">
       <c r="A105" s="154" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="B105" s="157"/>
       <c r="C105" s="157"/>
@@ -19185,23 +19883,23 @@
     </row>
     <row r="106" ht="169.5" customHeight="1">
       <c r="A106" s="80" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="B106" s="96" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="C106" s="96" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="D106" s="96" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="E106" s="96" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="F106" s="99"/>
       <c r="G106" s="129" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H106" s="99"/>
       <c r="I106" s="128"/>
@@ -19225,7 +19923,7 @@
     </row>
     <row r="107" ht="48.0" customHeight="1">
       <c r="A107" s="161" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B107" s="157"/>
       <c r="C107" s="157"/>
@@ -19255,21 +19953,21 @@
     </row>
     <row r="108" ht="45.75" customHeight="1">
       <c r="A108" s="80" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="B108" s="96" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="C108" s="146"/>
       <c r="D108" s="96" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E108" s="96" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F108" s="162"/>
       <c r="G108" s="163" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H108" s="99"/>
       <c r="I108" s="128"/>
@@ -19293,21 +19991,21 @@
     </row>
     <row r="109" ht="37.5" customHeight="1">
       <c r="A109" s="87" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="B109" s="88" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="C109" s="147"/>
       <c r="D109" s="88" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="E109" s="88" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="F109" s="164"/>
       <c r="G109" s="127" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H109" s="94"/>
       <c r="I109" s="126"/>
@@ -19331,23 +20029,23 @@
     </row>
     <row r="110" ht="40.5" customHeight="1">
       <c r="A110" s="80" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="B110" s="96" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="C110" s="146" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D110" s="146" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E110" s="146" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F110" s="162"/>
       <c r="G110" s="163" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H110" s="99"/>
       <c r="I110" s="128"/>
@@ -19371,21 +20069,21 @@
     </row>
     <row r="111" ht="36.0" customHeight="1">
       <c r="A111" s="87" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="B111" s="147" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C111" s="147"/>
       <c r="D111" s="88" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="E111" s="88" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="F111" s="164"/>
       <c r="G111" s="165" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H111" s="94"/>
       <c r="I111" s="126"/>
@@ -19409,21 +20107,21 @@
     </row>
     <row r="112" ht="37.5" customHeight="1">
       <c r="A112" s="80" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="B112" s="146" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C112" s="146"/>
       <c r="D112" s="96" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="E112" s="96" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="F112" s="162"/>
       <c r="G112" s="163" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H112" s="99"/>
       <c r="I112" s="128"/>
@@ -19447,21 +20145,21 @@
     </row>
     <row r="113" ht="36.0" customHeight="1">
       <c r="A113" s="87" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="B113" s="147" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C113" s="147"/>
       <c r="D113" s="147" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E113" s="147" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F113" s="164"/>
       <c r="G113" s="165" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H113" s="94"/>
       <c r="I113" s="126"/>
@@ -19485,21 +20183,21 @@
     </row>
     <row r="114" ht="36.75" customHeight="1">
       <c r="A114" s="80" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="B114" s="146" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C114" s="146"/>
       <c r="D114" s="146" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E114" s="146" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="F114" s="162"/>
       <c r="G114" s="163" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H114" s="99"/>
       <c r="I114" s="128"/>
@@ -19523,21 +20221,21 @@
     </row>
     <row r="115" ht="33.0" customHeight="1">
       <c r="A115" s="87" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="B115" s="88" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="C115" s="147"/>
       <c r="D115" s="88" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="E115" s="88" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="F115" s="164"/>
       <c r="G115" s="165" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H115" s="94"/>
       <c r="I115" s="126"/>
@@ -19561,21 +20259,21 @@
     </row>
     <row r="116" ht="33.0" customHeight="1">
       <c r="A116" s="80" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="B116" s="146" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C116" s="146"/>
       <c r="D116" s="96" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="E116" s="96" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="F116" s="162"/>
       <c r="G116" s="163" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H116" s="99"/>
       <c r="I116" s="128"/>
@@ -19599,23 +20297,23 @@
     </row>
     <row r="117" ht="43.5" customHeight="1">
       <c r="A117" s="87" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="B117" s="147" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C117" s="147" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D117" s="147" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="E117" s="147" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F117" s="164"/>
       <c r="G117" s="165" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H117" s="94"/>
       <c r="I117" s="126"/>
@@ -19639,21 +20337,21 @@
     </row>
     <row r="118" ht="38.25" customHeight="1">
       <c r="A118" s="80" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="B118" s="96" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="C118" s="146"/>
       <c r="D118" s="96" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="E118" s="96" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="F118" s="162"/>
       <c r="G118" s="163" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H118" s="99"/>
       <c r="I118" s="128"/>
@@ -19677,21 +20375,21 @@
     </row>
     <row r="119" ht="33.0" customHeight="1">
       <c r="A119" s="87" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="B119" s="147" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C119" s="147"/>
       <c r="D119" s="147" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E119" s="147" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="F119" s="164"/>
       <c r="G119" s="165" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H119" s="94"/>
       <c r="I119" s="126"/>
@@ -19715,7 +20413,7 @@
     </row>
     <row r="120" ht="60.0" customHeight="1">
       <c r="A120" s="166" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="B120" s="124"/>
       <c r="C120" s="124"/>
@@ -19745,23 +20443,23 @@
     </row>
     <row r="121" ht="69.0" customHeight="1">
       <c r="A121" s="87" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="B121" s="88" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="C121" s="88" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="D121" s="88" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="E121" s="88" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="F121" s="164"/>
       <c r="G121" s="127" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H121" s="94"/>
       <c r="I121" s="126"/>
@@ -19785,23 +20483,23 @@
     </row>
     <row r="122" ht="69.0" customHeight="1">
       <c r="A122" s="80" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="B122" s="96" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="C122" s="96" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="D122" s="96" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="E122" s="96" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="F122" s="162"/>
       <c r="G122" s="129" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H122" s="99"/>
       <c r="I122" s="128"/>
@@ -19825,23 +20523,23 @@
     </row>
     <row r="123" ht="69.0" customHeight="1">
       <c r="A123" s="87" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="B123" s="88" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="C123" s="88" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D123" s="88" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="E123" s="88" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="F123" s="164"/>
       <c r="G123" s="127" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H123" s="94"/>
       <c r="I123" s="126"/>
@@ -19865,23 +20563,23 @@
     </row>
     <row r="124" ht="69.0" customHeight="1">
       <c r="A124" s="80" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="B124" s="96" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="C124" s="96" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="D124" s="96" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="E124" s="96" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="F124" s="162"/>
       <c r="G124" s="129" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H124" s="99"/>
       <c r="I124" s="128"/>
@@ -19905,23 +20603,23 @@
     </row>
     <row r="125" ht="69.0" customHeight="1">
       <c r="A125" s="87" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="B125" s="88" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="C125" s="88" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="D125" s="88" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="E125" s="88" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="F125" s="164"/>
       <c r="G125" s="127" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H125" s="94"/>
       <c r="I125" s="126"/>
@@ -19945,7 +20643,7 @@
     </row>
     <row r="126" ht="60.0" customHeight="1">
       <c r="A126" s="166" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="B126" s="124"/>
       <c r="C126" s="124"/>
@@ -19975,23 +20673,23 @@
     </row>
     <row r="127" ht="55.5" customHeight="1">
       <c r="A127" s="126" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="B127" s="88" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="C127" s="88" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="D127" s="88" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="E127" s="88" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="F127" s="167"/>
       <c r="G127" s="168" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H127" s="167"/>
       <c r="I127" s="167"/>
@@ -20015,23 +20713,23 @@
     </row>
     <row r="128" ht="55.5" customHeight="1">
       <c r="A128" s="128" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="B128" s="96" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="C128" s="96" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="D128" s="96" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="E128" s="96" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="F128" s="169"/>
       <c r="G128" s="170" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H128" s="169"/>
       <c r="I128" s="169"/>
@@ -20055,23 +20753,23 @@
     </row>
     <row r="129" ht="56.25" customHeight="1">
       <c r="A129" s="126" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="B129" s="88" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="C129" s="88" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="D129" s="88" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="E129" s="88" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="F129" s="94"/>
       <c r="G129" s="168" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H129" s="94"/>
       <c r="I129" s="94"/>
@@ -20095,23 +20793,23 @@
     </row>
     <row r="130" ht="56.25" customHeight="1">
       <c r="A130" s="128" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="B130" s="96" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="C130" s="96" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="D130" s="96" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="E130" s="96" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="F130" s="99"/>
       <c r="G130" s="170" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H130" s="99"/>
       <c r="I130" s="99"/>
@@ -20135,7 +20833,7 @@
     </row>
     <row r="131" ht="48.0" customHeight="1">
       <c r="A131" s="161" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="B131" s="157"/>
       <c r="C131" s="157"/>
@@ -20165,23 +20863,23 @@
     </row>
     <row r="132" ht="137.25" customHeight="1">
       <c r="A132" s="171" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="B132" s="96" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="C132" s="96" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D132" s="96" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E132" s="96" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="F132" s="99"/>
       <c r="G132" s="129" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H132" s="84"/>
       <c r="I132" s="84"/>
@@ -20205,23 +20903,23 @@
     </row>
     <row r="133" ht="142.5" customHeight="1">
       <c r="A133" s="172" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="B133" s="88" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="C133" s="88" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="D133" s="88" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="E133" s="88" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="F133" s="94"/>
       <c r="G133" s="127" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H133" s="153"/>
       <c r="I133" s="153"/>
@@ -20245,7 +20943,7 @@
     </row>
     <row r="134" ht="48.0" customHeight="1">
       <c r="A134" s="161" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="B134" s="155"/>
       <c r="C134" s="155"/>
@@ -20275,21 +20973,21 @@
     </row>
     <row r="135" ht="39.0" customHeight="1">
       <c r="A135" s="87" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="B135" s="173" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C135" s="174"/>
       <c r="D135" s="175" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E135" s="175" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F135" s="176"/>
       <c r="G135" s="177" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H135" s="153"/>
       <c r="I135" s="153"/>
@@ -20313,21 +21011,21 @@
     </row>
     <row r="136" ht="56.25" customHeight="1">
       <c r="A136" s="80" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="B136" s="178" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C136" s="179"/>
       <c r="D136" s="140" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E136" s="140" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="F136" s="180"/>
       <c r="G136" s="181" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H136" s="99"/>
       <c r="I136" s="99"/>
@@ -20351,21 +21049,21 @@
     </row>
     <row r="137" ht="56.25" customHeight="1">
       <c r="A137" s="87" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="B137" s="182" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C137" s="183"/>
       <c r="D137" s="135" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E137" s="135" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="F137" s="184"/>
       <c r="G137" s="185" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H137" s="94"/>
       <c r="I137" s="94"/>
@@ -20389,21 +21087,21 @@
     </row>
     <row r="138" ht="56.25" customHeight="1">
       <c r="A138" s="80" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="B138" s="178" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C138" s="186"/>
       <c r="D138" s="140" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E138" s="140" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F138" s="180"/>
       <c r="G138" s="181" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H138" s="99"/>
       <c r="I138" s="99"/>
@@ -20427,21 +21125,21 @@
     </row>
     <row r="139" ht="56.25" customHeight="1">
       <c r="A139" s="87" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="B139" s="187" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="C139" s="188"/>
       <c r="D139" s="134" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="E139" s="134" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="F139" s="184"/>
       <c r="G139" s="144" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H139" s="94"/>
       <c r="I139" s="94"/>
@@ -20465,21 +21163,21 @@
     </row>
     <row r="140" ht="56.25" customHeight="1">
       <c r="A140" s="80" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="B140" s="189" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="C140" s="186"/>
       <c r="D140" s="139" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="E140" s="139" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="F140" s="180"/>
       <c r="G140" s="145" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H140" s="99"/>
       <c r="I140" s="99"/>
@@ -20503,21 +21201,21 @@
     </row>
     <row r="141" ht="56.25" customHeight="1">
       <c r="A141" s="87" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B141" s="187" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="C141" s="188"/>
       <c r="D141" s="134" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="E141" s="134" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="F141" s="184"/>
       <c r="G141" s="185" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H141" s="94"/>
       <c r="I141" s="94"/>
@@ -20541,21 +21239,21 @@
     </row>
     <row r="142" ht="56.25" customHeight="1">
       <c r="A142" s="80" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="B142" s="178" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C142" s="186"/>
       <c r="D142" s="140" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E142" s="140" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="F142" s="180"/>
       <c r="G142" s="181" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H142" s="84"/>
       <c r="I142" s="84"/>
@@ -20579,21 +21277,21 @@
     </row>
     <row r="143" ht="56.25" customHeight="1">
       <c r="A143" s="87" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="B143" s="190" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C143" s="188"/>
       <c r="D143" s="135" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="E143" s="135" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="F143" s="184"/>
       <c r="G143" s="185" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H143" s="153"/>
       <c r="I143" s="153"/>
@@ -20617,21 +21315,21 @@
     </row>
     <row r="144" ht="61.5" customHeight="1">
       <c r="A144" s="80" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="B144" s="189" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C144" s="186"/>
       <c r="D144" s="139" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="E144" s="139" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="F144" s="180"/>
       <c r="G144" s="181" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H144" s="84"/>
       <c r="I144" s="84"/>
@@ -20655,7 +21353,7 @@
     </row>
     <row r="145" ht="48.0" customHeight="1">
       <c r="A145" s="161" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="B145" s="157"/>
       <c r="C145" s="157"/>
@@ -20685,23 +21383,23 @@
     </row>
     <row r="146" ht="56.25" customHeight="1">
       <c r="A146" s="128" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="B146" s="191" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="C146" s="192" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="D146" s="193" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="E146" s="193" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="F146" s="194"/>
       <c r="G146" s="195" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H146" s="99"/>
       <c r="I146" s="99"/>
@@ -20725,23 +21423,23 @@
     </row>
     <row r="147" ht="56.25" customHeight="1">
       <c r="A147" s="126" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="B147" s="190" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C147" s="196" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="D147" s="135" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="E147" s="135" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F147" s="184"/>
       <c r="G147" s="185" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H147" s="94"/>
       <c r="I147" s="94"/>
@@ -20765,23 +21463,23 @@
     </row>
     <row r="148" ht="64.5" customHeight="1">
       <c r="A148" s="128" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="B148" s="178" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="C148" s="197" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="D148" s="140" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="E148" s="140" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="F148" s="180"/>
       <c r="G148" s="181" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H148" s="99"/>
       <c r="I148" s="99"/>
@@ -20805,23 +21503,23 @@
     </row>
     <row r="149" ht="63.0" customHeight="1">
       <c r="A149" s="126" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="B149" s="190" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C149" s="134" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="D149" s="135" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="E149" s="135" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="F149" s="184"/>
       <c r="G149" s="185" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H149" s="94"/>
       <c r="I149" s="94"/>
@@ -20845,23 +21543,23 @@
     </row>
     <row r="150" ht="68.25" customHeight="1">
       <c r="A150" s="128" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="B150" s="178" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C150" s="139" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="D150" s="140" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="E150" s="140" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="F150" s="180"/>
       <c r="G150" s="181" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H150" s="99"/>
       <c r="I150" s="99"/>
@@ -20885,21 +21583,21 @@
     </row>
     <row r="151" ht="56.25" customHeight="1">
       <c r="A151" s="126" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="B151" s="190" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C151" s="183"/>
       <c r="D151" s="135" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E151" s="135" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="F151" s="184"/>
       <c r="G151" s="185" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H151" s="94"/>
       <c r="I151" s="94"/>
@@ -20923,23 +21621,23 @@
     </row>
     <row r="152" ht="120.75" customHeight="1">
       <c r="A152" s="128" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="B152" s="178" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C152" s="139" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="D152" s="140" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="E152" s="140" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="F152" s="180"/>
       <c r="G152" s="181" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H152" s="99"/>
       <c r="I152" s="99"/>
@@ -20963,23 +21661,23 @@
     </row>
     <row r="153" ht="153.0" customHeight="1">
       <c r="A153" s="126" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="B153" s="187" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="C153" s="196" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="D153" s="135" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="E153" s="135" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="F153" s="184"/>
       <c r="G153" s="185" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H153" s="94"/>
       <c r="I153" s="94"/>
@@ -21003,7 +21701,7 @@
     </row>
     <row r="154" ht="48.0" customHeight="1">
       <c r="A154" s="161" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="B154" s="155"/>
       <c r="C154" s="155"/>
@@ -21033,21 +21731,21 @@
     </row>
     <row r="155" ht="56.25" customHeight="1">
       <c r="A155" s="126" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="B155" s="147" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C155" s="147"/>
       <c r="D155" s="147" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E155" s="147" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F155" s="94"/>
       <c r="G155" s="168" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H155" s="94"/>
       <c r="I155" s="94"/>
@@ -21071,21 +21769,21 @@
     </row>
     <row r="156" ht="56.25" customHeight="1">
       <c r="A156" s="128" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="B156" s="146" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C156" s="146"/>
       <c r="D156" s="146" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E156" s="146" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="F156" s="99"/>
       <c r="G156" s="170" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H156" s="99"/>
       <c r="I156" s="99"/>
@@ -21109,21 +21807,21 @@
     </row>
     <row r="157" ht="81.0" customHeight="1">
       <c r="A157" s="126" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="B157" s="147" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C157" s="147"/>
       <c r="D157" s="147" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E157" s="147" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="F157" s="94"/>
       <c r="G157" s="168" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H157" s="94"/>
       <c r="I157" s="94"/>
@@ -21147,21 +21845,21 @@
     </row>
     <row r="158" ht="84.0" customHeight="1">
       <c r="A158" s="128" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="B158" s="146" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C158" s="146"/>
       <c r="D158" s="146" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E158" s="146" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F158" s="99"/>
       <c r="G158" s="170" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H158" s="99"/>
       <c r="I158" s="99"/>
@@ -21185,21 +21883,21 @@
     </row>
     <row r="159" ht="90.75" customHeight="1">
       <c r="A159" s="126" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="B159" s="88" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="C159" s="147"/>
       <c r="D159" s="88" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="E159" s="88" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="F159" s="198"/>
       <c r="G159" s="168" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H159" s="94"/>
       <c r="I159" s="127"/>
@@ -21223,21 +21921,21 @@
     </row>
     <row r="160" ht="90.75" customHeight="1">
       <c r="A160" s="128" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="B160" s="96" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="C160" s="146"/>
       <c r="D160" s="96" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="E160" s="96" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="F160" s="199"/>
       <c r="G160" s="170" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H160" s="99"/>
       <c r="I160" s="129"/>
@@ -21261,21 +21959,21 @@
     </row>
     <row r="161" ht="56.25" customHeight="1">
       <c r="A161" s="126" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="B161" s="88" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="C161" s="147"/>
       <c r="D161" s="88" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="E161" s="88" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="F161" s="120"/>
       <c r="G161" s="168" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H161" s="94"/>
       <c r="I161" s="127"/>
@@ -21299,21 +21997,21 @@
     </row>
     <row r="162" ht="56.25" customHeight="1">
       <c r="A162" s="128" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="B162" s="146" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C162" s="146"/>
       <c r="D162" s="146" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E162" s="146" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="F162" s="200"/>
       <c r="G162" s="170" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H162" s="84"/>
       <c r="I162" s="129"/>
@@ -21337,21 +22035,21 @@
     </row>
     <row r="163" ht="72.75" customHeight="1">
       <c r="A163" s="126" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="B163" s="135" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C163" s="147"/>
       <c r="D163" s="151" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="E163" s="151" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="F163" s="153"/>
       <c r="G163" s="168" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H163" s="153"/>
       <c r="I163" s="153"/>
@@ -21375,21 +22073,21 @@
     </row>
     <row r="164" ht="85.5" customHeight="1">
       <c r="A164" s="128" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="B164" s="139" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C164" s="146"/>
       <c r="D164" s="81" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="E164" s="81" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="F164" s="84"/>
       <c r="G164" s="170" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H164" s="84"/>
       <c r="I164" s="84"/>
@@ -21413,7 +22111,7 @@
     </row>
     <row r="165" ht="48.0" customHeight="1">
       <c r="A165" s="161" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="B165" s="157"/>
       <c r="C165" s="157"/>
@@ -21443,23 +22141,23 @@
     </row>
     <row r="166" ht="60.0" customHeight="1">
       <c r="A166" s="201" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="B166" s="193" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="C166" s="192" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="D166" s="193" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="E166" s="193" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="F166" s="202"/>
       <c r="G166" s="195" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H166" s="202"/>
       <c r="I166" s="202"/>
@@ -21483,23 +22181,23 @@
     </row>
     <row r="167" ht="56.25" customHeight="1">
       <c r="A167" s="204" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="B167" s="135" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="C167" s="196" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="D167" s="135" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="E167" s="135" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="F167" s="136"/>
       <c r="G167" s="185" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H167" s="136"/>
       <c r="I167" s="136"/>
@@ -21523,23 +22221,23 @@
     </row>
     <row r="168" ht="84.75" customHeight="1">
       <c r="A168" s="205" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="B168" s="140" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="C168" s="197" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="D168" s="140" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="E168" s="140" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="F168" s="141"/>
       <c r="G168" s="181" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H168" s="141"/>
       <c r="I168" s="141"/>
@@ -21563,23 +22261,23 @@
     </row>
     <row r="169" ht="79.5" customHeight="1">
       <c r="A169" s="204" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="B169" s="135" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="C169" s="196" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="D169" s="135" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="E169" s="135" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="F169" s="136"/>
       <c r="G169" s="185" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H169" s="136"/>
       <c r="I169" s="136"/>
@@ -21603,29 +22301,29 @@
     </row>
     <row r="170" ht="84.0" customHeight="1">
       <c r="A170" s="205" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="B170" s="140" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="C170" s="197" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="D170" s="140" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="E170" s="140" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="F170" s="207" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="G170" s="181" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="H170" s="141"/>
       <c r="I170" s="208" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="J170" s="141"/>
       <c r="K170" s="206"/>
@@ -21647,29 +22345,29 @@
     </row>
     <row r="171" ht="98.25" customHeight="1">
       <c r="A171" s="204" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="B171" s="135" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="C171" s="196" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="D171" s="135" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="E171" s="135" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="F171" s="209" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="G171" s="185" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="H171" s="136"/>
       <c r="I171" s="210" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="J171" s="136"/>
       <c r="K171" s="137"/>
@@ -21691,29 +22389,29 @@
     </row>
     <row r="172" ht="56.25" customHeight="1">
       <c r="A172" s="205" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="B172" s="140" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="C172" s="197" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="D172" s="140" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="E172" s="140" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="F172" s="211" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="G172" s="212" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="H172" s="141"/>
       <c r="I172" s="208" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="J172" s="141"/>
       <c r="K172" s="206"/>
@@ -21735,29 +22433,29 @@
     </row>
     <row r="173" ht="56.25" customHeight="1">
       <c r="A173" s="204" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="B173" s="135" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="C173" s="196" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="D173" s="135" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="E173" s="135" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="F173" s="213" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="G173" s="214" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="H173" s="136"/>
       <c r="I173" s="210" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="J173" s="136"/>
       <c r="K173" s="137"/>
@@ -21779,23 +22477,23 @@
     </row>
     <row r="174" ht="64.5" customHeight="1">
       <c r="A174" s="205" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="B174" s="140" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="C174" s="197" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="D174" s="140" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="E174" s="140" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="F174" s="141"/>
       <c r="G174" s="212" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H174" s="141"/>
       <c r="I174" s="141"/>
@@ -21819,23 +22517,23 @@
     </row>
     <row r="175" ht="84.0" customHeight="1">
       <c r="A175" s="204" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="B175" s="135" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="C175" s="196" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="D175" s="135" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="E175" s="135" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="F175" s="136"/>
       <c r="G175" s="214" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H175" s="136"/>
       <c r="I175" s="136"/>
@@ -21859,7 +22557,7 @@
     </row>
     <row r="176" ht="48.0" customHeight="1">
       <c r="A176" s="161" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="B176" s="155"/>
       <c r="C176" s="155"/>
@@ -21889,21 +22587,21 @@
     </row>
     <row r="177" ht="56.25" customHeight="1">
       <c r="A177" s="126" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="B177" s="173" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C177" s="215"/>
       <c r="D177" s="175" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E177" s="175" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F177" s="216"/>
       <c r="G177" s="177" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H177" s="94"/>
       <c r="I177" s="94"/>
@@ -21927,21 +22625,21 @@
     </row>
     <row r="178" ht="56.25" customHeight="1">
       <c r="A178" s="128" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="B178" s="178" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C178" s="197"/>
       <c r="D178" s="140" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E178" s="140" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="F178" s="141"/>
       <c r="G178" s="181" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H178" s="99"/>
       <c r="I178" s="99"/>
@@ -21965,23 +22663,23 @@
     </row>
     <row r="179" ht="56.25" customHeight="1">
       <c r="A179" s="126" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="B179" s="190" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C179" s="134" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="D179" s="135" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E179" s="135" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F179" s="136"/>
       <c r="G179" s="185" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H179" s="94"/>
       <c r="I179" s="94"/>
@@ -22005,23 +22703,23 @@
     </row>
     <row r="180" ht="56.25" customHeight="1">
       <c r="A180" s="128" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="B180" s="189" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="C180" s="139" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="D180" s="139" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="E180" s="139" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="F180" s="141"/>
       <c r="G180" s="145" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H180" s="84"/>
       <c r="I180" s="84"/>
@@ -22045,21 +22743,21 @@
     </row>
     <row r="181" ht="56.25" customHeight="1">
       <c r="A181" s="126" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="B181" s="190" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C181" s="196"/>
       <c r="D181" s="135" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E181" s="135" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="F181" s="136"/>
       <c r="G181" s="185" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H181" s="153"/>
       <c r="I181" s="153"/>
@@ -22083,21 +22781,21 @@
     </row>
     <row r="182" ht="56.25" customHeight="1">
       <c r="A182" s="128" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="B182" s="178" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C182" s="197"/>
       <c r="D182" s="140" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="E182" s="140" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="F182" s="141"/>
       <c r="G182" s="181" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H182" s="84"/>
       <c r="I182" s="84"/>
@@ -22121,21 +22819,21 @@
     </row>
     <row r="183" ht="56.25" customHeight="1">
       <c r="A183" s="126" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="B183" s="190" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C183" s="196"/>
       <c r="D183" s="135" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="E183" s="135" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="F183" s="136"/>
       <c r="G183" s="214" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H183" s="153"/>
       <c r="I183" s="153"/>
@@ -22159,7 +22857,7 @@
     </row>
     <row r="184" ht="48.0" customHeight="1">
       <c r="A184" s="161" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="B184" s="155"/>
       <c r="C184" s="155"/>
@@ -22189,29 +22887,29 @@
     </row>
     <row r="185" ht="56.25" customHeight="1">
       <c r="A185" s="126" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="B185" s="88" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="C185" s="88" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="D185" s="88" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="E185" s="88" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="F185" s="159" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="G185" s="168" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="H185" s="94"/>
       <c r="I185" s="126" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="J185" s="94"/>
       <c r="K185" s="95"/>
@@ -22233,29 +22931,29 @@
     </row>
     <row r="186" ht="145.5" customHeight="1">
       <c r="A186" s="128" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="B186" s="96" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="C186" s="96" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="D186" s="96" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="E186" s="96" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="F186" s="217" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="G186" s="170" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="H186" s="99"/>
       <c r="I186" s="128" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="J186" s="99"/>
       <c r="K186" s="86"/>
@@ -22277,21 +22975,21 @@
     </row>
     <row r="187" ht="138.0" customHeight="1">
       <c r="A187" s="126" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="B187" s="88" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="C187" s="88" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="D187" s="88"/>
       <c r="E187" s="88" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="F187" s="89"/>
       <c r="G187" s="168" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H187" s="94"/>
       <c r="I187" s="94"/>
@@ -22315,7 +23013,7 @@
     </row>
     <row r="188" ht="48.0" customHeight="1">
       <c r="A188" s="161" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="B188" s="155"/>
       <c r="C188" s="155"/>
@@ -22345,23 +23043,23 @@
     </row>
     <row r="189" ht="174.75" customHeight="1">
       <c r="A189" s="126" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="B189" s="88" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="C189" s="88" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="D189" s="88" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="E189" s="88" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="F189" s="94"/>
       <c r="G189" s="168" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H189" s="94"/>
       <c r="I189" s="94"/>
@@ -28341,7 +29039,7 @@
   <sheetData>
     <row r="1" ht="38.25" customHeight="1">
       <c r="A1" s="65" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="66" t="s">
@@ -28352,11 +29050,11 @@
     </row>
     <row r="2" ht="54.0" customHeight="1">
       <c r="A2" s="109" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="110" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="D2" s="111"/>
       <c r="E2" s="67"/>
@@ -28378,16 +29076,16 @@
         <v>98</v>
       </c>
       <c r="H3" s="117" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" ht="64.5" customHeight="1">
       <c r="A4" s="68" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="118" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="D4" s="47"/>
       <c r="E4" s="67"/>
@@ -28406,7 +29104,7 @@
     </row>
     <row r="5" ht="27.0" customHeight="1">
       <c r="A5" s="72" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="73" t="s">
@@ -28422,34 +29120,34 @@
     </row>
     <row r="7" ht="27.0" customHeight="1">
       <c r="A7" s="74" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B7" s="75" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D7" s="75" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E7" s="74" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F7" s="75" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="G7" s="75" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="H7" s="75" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="I7" s="75" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="J7" s="75" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="K7" s="76"/>
       <c r="L7" s="76"/>
@@ -28470,7 +29168,7 @@
     </row>
     <row r="8" ht="48.0" customHeight="1">
       <c r="A8" s="161" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="B8" s="221"/>
       <c r="C8" s="221"/>
@@ -28500,21 +29198,21 @@
     </row>
     <row r="9" ht="67.5" customHeight="1">
       <c r="A9" s="80" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="B9" s="96" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="C9" s="146"/>
       <c r="D9" s="96" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E9" s="96" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F9" s="162"/>
       <c r="G9" s="163" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H9" s="99"/>
       <c r="I9" s="128"/>
@@ -28538,21 +29236,21 @@
     </row>
     <row r="10" ht="48.0" customHeight="1">
       <c r="A10" s="87" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="B10" s="88" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="C10" s="147"/>
       <c r="D10" s="88" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="E10" s="88" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="F10" s="164"/>
       <c r="G10" s="127" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H10" s="94"/>
       <c r="I10" s="126"/>
@@ -28576,23 +29274,23 @@
     </row>
     <row r="11" ht="48.0" customHeight="1">
       <c r="A11" s="80" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="B11" s="96" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="C11" s="146" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D11" s="146" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E11" s="146" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F11" s="162"/>
       <c r="G11" s="163" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H11" s="99"/>
       <c r="I11" s="128"/>
@@ -28616,21 +29314,21 @@
     </row>
     <row r="12" ht="48.0" customHeight="1">
       <c r="A12" s="87" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="B12" s="147" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C12" s="147"/>
       <c r="D12" s="88" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="E12" s="88" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="F12" s="164"/>
       <c r="G12" s="165" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H12" s="94"/>
       <c r="I12" s="126"/>
@@ -28654,21 +29352,21 @@
     </row>
     <row r="13" ht="48.0" customHeight="1">
       <c r="A13" s="80" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="B13" s="146" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C13" s="146"/>
       <c r="D13" s="96" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="E13" s="96" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="F13" s="162"/>
       <c r="G13" s="163" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H13" s="99"/>
       <c r="I13" s="128"/>
@@ -28692,21 +29390,21 @@
     </row>
     <row r="14" ht="48.0" customHeight="1">
       <c r="A14" s="87" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="B14" s="147" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C14" s="147"/>
       <c r="D14" s="147" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E14" s="147" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F14" s="164"/>
       <c r="G14" s="165" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H14" s="94"/>
       <c r="I14" s="126"/>
@@ -28730,21 +29428,21 @@
     </row>
     <row r="15" ht="48.0" customHeight="1">
       <c r="A15" s="80" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="B15" s="146" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C15" s="146"/>
       <c r="D15" s="146" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E15" s="146" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="F15" s="162"/>
       <c r="G15" s="163" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H15" s="99"/>
       <c r="I15" s="128"/>
@@ -28768,21 +29466,21 @@
     </row>
     <row r="16" ht="48.0" customHeight="1">
       <c r="A16" s="87" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="B16" s="88" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="C16" s="147"/>
       <c r="D16" s="88" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="E16" s="88" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="F16" s="164"/>
       <c r="G16" s="165" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H16" s="94"/>
       <c r="I16" s="126"/>
@@ -28806,21 +29504,21 @@
     </row>
     <row r="17" ht="48.0" customHeight="1">
       <c r="A17" s="80" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="B17" s="146" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C17" s="146"/>
       <c r="D17" s="96" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="E17" s="96" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="F17" s="162"/>
       <c r="G17" s="163" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H17" s="99"/>
       <c r="I17" s="128"/>
@@ -28844,23 +29542,23 @@
     </row>
     <row r="18" ht="48.0" customHeight="1">
       <c r="A18" s="87" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="B18" s="147" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C18" s="147" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D18" s="147" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="E18" s="147" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F18" s="164"/>
       <c r="G18" s="165" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H18" s="94"/>
       <c r="I18" s="126"/>
@@ -28884,21 +29582,21 @@
     </row>
     <row r="19" ht="48.0" customHeight="1">
       <c r="A19" s="80" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="B19" s="96" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="C19" s="146"/>
       <c r="D19" s="96" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="E19" s="96" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="F19" s="162"/>
       <c r="G19" s="163" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H19" s="99"/>
       <c r="I19" s="128"/>
@@ -28922,21 +29620,21 @@
     </row>
     <row r="20" ht="48.0" customHeight="1">
       <c r="A20" s="87" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="B20" s="147" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C20" s="147"/>
       <c r="D20" s="147" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E20" s="147" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="F20" s="164"/>
       <c r="G20" s="165" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H20" s="94"/>
       <c r="I20" s="126"/>
@@ -28960,7 +29658,7 @@
     </row>
     <row r="21" ht="51.75" customHeight="1">
       <c r="A21" s="166" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="B21" s="124"/>
       <c r="C21" s="124"/>
@@ -28990,23 +29688,23 @@
     </row>
     <row r="22" ht="55.5" customHeight="1">
       <c r="A22" s="126" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="B22" s="88" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="C22" s="88" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="D22" s="88" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="E22" s="88" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="F22" s="167"/>
       <c r="G22" s="168" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H22" s="167"/>
       <c r="I22" s="167"/>
@@ -29030,23 +29728,23 @@
     </row>
     <row r="23" ht="63.0" customHeight="1">
       <c r="A23" s="128" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="B23" s="96" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="C23" s="96" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="D23" s="96" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="E23" s="96" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="F23" s="169"/>
       <c r="G23" s="170" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H23" s="169"/>
       <c r="I23" s="169"/>
@@ -29070,23 +29768,23 @@
     </row>
     <row r="24" ht="63.75" customHeight="1">
       <c r="A24" s="126" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="B24" s="88" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="C24" s="88" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="D24" s="88" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="E24" s="88" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="F24" s="94"/>
       <c r="G24" s="168" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H24" s="94"/>
       <c r="I24" s="94"/>
@@ -29110,23 +29808,23 @@
     </row>
     <row r="25" ht="96.0" customHeight="1">
       <c r="A25" s="128" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="B25" s="96" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="C25" s="96" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="D25" s="96" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="E25" s="96" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="F25" s="99"/>
       <c r="G25" s="170" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H25" s="99"/>
       <c r="I25" s="99"/>
@@ -29150,23 +29848,23 @@
     </row>
     <row r="26" ht="56.25" customHeight="1">
       <c r="A26" s="126" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="B26" s="91" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="C26" s="91" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="D26" s="91" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="E26" s="91" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="F26" s="153"/>
       <c r="G26" s="168" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H26" s="153"/>
       <c r="I26" s="153"/>
@@ -29190,23 +29888,23 @@
     </row>
     <row r="27" ht="56.25" customHeight="1">
       <c r="A27" s="128" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="B27" s="81" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="C27" s="81" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="D27" s="81" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="E27" s="81" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="F27" s="84"/>
       <c r="G27" s="170" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H27" s="84"/>
       <c r="I27" s="84"/>
@@ -29230,23 +29928,23 @@
     </row>
     <row r="28" ht="96.75" customHeight="1">
       <c r="A28" s="126" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="B28" s="91" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="C28" s="91" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="D28" s="91" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="E28" s="91" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="F28" s="153"/>
       <c r="G28" s="168" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H28" s="153"/>
       <c r="I28" s="153"/>
@@ -29270,23 +29968,23 @@
     </row>
     <row r="29" ht="90.0" customHeight="1">
       <c r="A29" s="128" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="B29" s="81" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="C29" s="81" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="D29" s="81" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="E29" s="81" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="F29" s="84"/>
       <c r="G29" s="170" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H29" s="84"/>
       <c r="I29" s="84"/>
@@ -29310,23 +30008,23 @@
     </row>
     <row r="30" ht="122.25" customHeight="1">
       <c r="A30" s="126" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="B30" s="91" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="C30" s="91" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="D30" s="91" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="E30" s="91" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="F30" s="153"/>
       <c r="G30" s="168" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H30" s="153"/>
       <c r="I30" s="153"/>
@@ -29350,7 +30048,7 @@
     </row>
     <row r="31" ht="48.0" customHeight="1">
       <c r="A31" s="161" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="B31" s="155"/>
       <c r="C31" s="155"/>
@@ -29380,23 +30078,23 @@
     </row>
     <row r="32" ht="137.25" customHeight="1">
       <c r="A32" s="172" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="B32" s="88" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="C32" s="88" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D32" s="88" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E32" s="88" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="F32" s="94"/>
       <c r="G32" s="127" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H32" s="153"/>
       <c r="I32" s="153"/>
@@ -29420,23 +30118,23 @@
     </row>
     <row r="33" ht="142.5" customHeight="1">
       <c r="A33" s="171" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="B33" s="96" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="C33" s="96" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="D33" s="96" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="E33" s="96" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="F33" s="99"/>
       <c r="G33" s="129" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H33" s="84"/>
       <c r="I33" s="84"/>
@@ -29460,7 +30158,7 @@
     </row>
     <row r="34" ht="48.0" customHeight="1">
       <c r="A34" s="161" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="B34" s="157"/>
       <c r="C34" s="157"/>
@@ -29490,21 +30188,21 @@
     </row>
     <row r="35" ht="56.25" customHeight="1">
       <c r="A35" s="128" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="B35" s="96" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="C35" s="146"/>
       <c r="D35" s="146" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E35" s="146" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F35" s="99"/>
       <c r="G35" s="170" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H35" s="99"/>
       <c r="I35" s="99"/>
@@ -29528,21 +30226,21 @@
     </row>
     <row r="36" ht="56.25" customHeight="1">
       <c r="A36" s="126" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="B36" s="88" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="C36" s="147"/>
       <c r="D36" s="88" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="E36" s="88" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="F36" s="94"/>
       <c r="G36" s="168" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
@@ -29566,21 +30264,21 @@
     </row>
     <row r="37" ht="56.25" customHeight="1">
       <c r="A37" s="128" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="B37" s="146" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C37" s="146"/>
       <c r="D37" s="96" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="E37" s="96" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="F37" s="99"/>
       <c r="G37" s="170" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H37" s="99"/>
       <c r="I37" s="99"/>
@@ -29604,23 +30302,23 @@
     </row>
     <row r="38" ht="56.25" customHeight="1">
       <c r="A38" s="126" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="B38" s="88" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="C38" s="88" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="D38" s="88" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="E38" s="88" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="F38" s="120"/>
       <c r="G38" s="168" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H38" s="94"/>
       <c r="I38" s="127"/>
@@ -29644,21 +30342,21 @@
     </row>
     <row r="39" ht="56.25" customHeight="1">
       <c r="A39" s="128" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="B39" s="96" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="C39" s="146"/>
       <c r="D39" s="146" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E39" s="146" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="F39" s="200"/>
       <c r="G39" s="170" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H39" s="84"/>
       <c r="I39" s="129"/>
@@ -29682,21 +30380,21 @@
     </row>
     <row r="40" ht="72.75" customHeight="1">
       <c r="A40" s="126" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="B40" s="134" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="C40" s="147"/>
       <c r="D40" s="91" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="E40" s="91" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="F40" s="153"/>
       <c r="G40" s="168" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H40" s="153"/>
       <c r="I40" s="153"/>
@@ -29720,21 +30418,21 @@
     </row>
     <row r="41" ht="85.5" customHeight="1">
       <c r="A41" s="128" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="B41" s="139" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C41" s="146"/>
       <c r="D41" s="81" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="E41" s="81" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="F41" s="84"/>
       <c r="G41" s="170" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H41" s="84"/>
       <c r="I41" s="84"/>
@@ -29758,7 +30456,7 @@
     </row>
     <row r="42" ht="48.0" customHeight="1">
       <c r="A42" s="161" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="B42" s="157"/>
       <c r="C42" s="157"/>
@@ -29788,23 +30486,23 @@
     </row>
     <row r="43" ht="60.0" customHeight="1">
       <c r="A43" s="223" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="B43" s="224" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="C43" s="224" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="D43" s="224" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="E43" s="224" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="F43" s="202"/>
       <c r="G43" s="225" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H43" s="202"/>
       <c r="I43" s="202"/>
@@ -29828,23 +30526,23 @@
     </row>
     <row r="44" ht="56.25" customHeight="1">
       <c r="A44" s="226" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="B44" s="227" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="C44" s="227" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="D44" s="227" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="E44" s="227" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="F44" s="136"/>
       <c r="G44" s="228" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H44" s="136"/>
       <c r="I44" s="136"/>
@@ -29868,23 +30566,23 @@
     </row>
     <row r="45" ht="84.75" customHeight="1">
       <c r="A45" s="223" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="B45" s="224" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="C45" s="224" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="D45" s="224" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="E45" s="224" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="F45" s="141"/>
       <c r="G45" s="225" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H45" s="141"/>
       <c r="I45" s="141"/>
@@ -29908,23 +30606,23 @@
     </row>
     <row r="46" ht="79.5" customHeight="1">
       <c r="A46" s="226" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="B46" s="227" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="C46" s="227" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D46" s="227" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="E46" s="227" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="F46" s="136"/>
       <c r="G46" s="228" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H46" s="136"/>
       <c r="I46" s="136"/>
@@ -29948,23 +30646,23 @@
     </row>
     <row r="47" ht="84.0" customHeight="1">
       <c r="A47" s="223" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="B47" s="224" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="C47" s="224" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="D47" s="224" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="E47" s="224" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="F47" s="207"/>
       <c r="G47" s="225" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H47" s="141"/>
       <c r="I47" s="208"/>
@@ -29988,23 +30686,23 @@
     </row>
     <row r="48" ht="98.25" customHeight="1">
       <c r="A48" s="226" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
       <c r="B48" s="227" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="C48" s="227" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="D48" s="227" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="E48" s="227" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="F48" s="209"/>
       <c r="G48" s="228" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H48" s="136"/>
       <c r="I48" s="210"/>
@@ -30028,23 +30726,23 @@
     </row>
     <row r="49" ht="56.25" customHeight="1">
       <c r="A49" s="223" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="B49" s="224" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="C49" s="224" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="D49" s="224" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="E49" s="224" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="F49" s="211"/>
       <c r="G49" s="225" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H49" s="141"/>
       <c r="I49" s="208"/>
@@ -30068,23 +30766,23 @@
     </row>
     <row r="50" ht="56.25" customHeight="1">
       <c r="A50" s="226" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="B50" s="227" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="C50" s="227" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="D50" s="227" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="E50" s="227" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="F50" s="213"/>
       <c r="G50" s="228" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H50" s="136"/>
       <c r="I50" s="210"/>
@@ -30108,23 +30806,23 @@
     </row>
     <row r="51" ht="84.0" customHeight="1">
       <c r="A51" s="223" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="B51" s="139" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
       <c r="C51" s="139" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="D51" s="139" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="E51" s="139" t="s">
-        <v>745</v>
+        <v>753</v>
       </c>
       <c r="F51" s="141"/>
       <c r="G51" s="225" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H51" s="141"/>
       <c r="I51" s="141"/>
@@ -30148,23 +30846,23 @@
     </row>
     <row r="52" ht="84.0" customHeight="1">
       <c r="A52" s="226" t="s">
-        <v>741</v>
+        <v>754</v>
       </c>
       <c r="B52" s="134" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="C52" s="134" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
       <c r="D52" s="134" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="E52" s="134" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="F52" s="136"/>
       <c r="G52" s="228" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H52" s="136"/>
       <c r="I52" s="136"/>
@@ -30188,7 +30886,7 @@
     </row>
     <row r="53" ht="48.0" customHeight="1">
       <c r="A53" s="161" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
       <c r="B53" s="155"/>
       <c r="C53" s="155"/>
@@ -30218,23 +30916,23 @@
     </row>
     <row r="54" ht="174.75" customHeight="1">
       <c r="A54" s="126" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="B54" s="88" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
       <c r="C54" s="88" t="s">
-        <v>753</v>
+        <v>762</v>
       </c>
       <c r="D54" s="88" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="E54" s="88" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="F54" s="94"/>
       <c r="G54" s="168" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
@@ -36221,61 +36919,61 @@
     </row>
     <row r="2" ht="36.75" customHeight="1">
       <c r="A2" s="231" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B2" s="231" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="C2" s="231" t="s">
-        <v>757</v>
+        <v>766</v>
       </c>
       <c r="D2" s="231" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E2" s="231" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
       <c r="F2" s="231" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
       <c r="G2" s="231" t="s">
-        <v>760</v>
+        <v>769</v>
       </c>
       <c r="H2" s="231" t="s">
-        <v>761</v>
+        <v>770</v>
       </c>
       <c r="I2" s="231" t="s">
-        <v>762</v>
+        <v>771</v>
       </c>
       <c r="J2" s="232" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
       <c r="K2" s="232" t="s">
-        <v>764</v>
+        <v>773</v>
       </c>
       <c r="L2" s="232" t="s">
-        <v>765</v>
+        <v>774</v>
       </c>
       <c r="M2" s="232" t="s">
-        <v>766</v>
+        <v>775</v>
       </c>
       <c r="N2" s="232" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
       <c r="O2" s="232" t="s">
-        <v>768</v>
+        <v>777</v>
       </c>
       <c r="P2" s="232" t="s">
-        <v>769</v>
+        <v>778</v>
       </c>
       <c r="Q2" s="232" t="s">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="R2" s="232" t="s">
-        <v>771</v>
+        <v>780</v>
       </c>
       <c r="S2" s="232" t="s">
-        <v>772</v>
+        <v>781</v>
       </c>
       <c r="T2" s="233"/>
       <c r="U2" s="233"/>
@@ -36287,43 +36985,43 @@
     </row>
     <row r="3" ht="87.75" customHeight="1">
       <c r="A3" s="234" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="B3" s="234" t="s">
-        <v>773</v>
+        <v>782</v>
       </c>
       <c r="C3" s="235"/>
       <c r="D3" s="234" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="E3" s="236" t="s">
-        <v>775</v>
+        <v>784</v>
       </c>
       <c r="F3" s="236" t="s">
-        <v>776</v>
+        <v>785</v>
       </c>
       <c r="G3" s="236" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="H3" s="237" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="I3" s="238" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="J3" s="234" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="K3" s="234" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="L3" s="239" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="M3" s="240"/>
       <c r="N3" s="235"/>
       <c r="O3" s="234" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="P3" s="234"/>
       <c r="Q3" s="234"/>
@@ -36339,43 +37037,43 @@
     </row>
     <row r="4" ht="87.75" customHeight="1">
       <c r="A4" s="234" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="B4" s="234" t="s">
-        <v>779</v>
+        <v>788</v>
       </c>
       <c r="C4" s="235"/>
       <c r="D4" s="234" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="E4" s="236" t="s">
-        <v>775</v>
+        <v>784</v>
       </c>
       <c r="F4" s="236" t="s">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="G4" s="236" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="H4" s="242" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="I4" s="243" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="J4" s="234" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="K4" s="234" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="L4" s="239" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="M4" s="240"/>
       <c r="N4" s="235"/>
       <c r="O4" s="234" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="P4" s="234" t="s">
         <v>13</v>
@@ -36393,41 +37091,41 @@
     </row>
     <row r="5" ht="98.25" customHeight="1">
       <c r="A5" s="234" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="B5" s="234" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="C5" s="235"/>
       <c r="D5" s="234" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="E5" s="236" t="s">
-        <v>775</v>
+        <v>784</v>
       </c>
       <c r="F5" s="236" t="s">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="G5" s="236"/>
       <c r="H5" s="244" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="I5" s="245" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="J5" s="234" t="s">
-        <v>782</v>
+        <v>791</v>
       </c>
       <c r="K5" s="234" t="s">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="L5" s="239" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="M5" s="240"/>
       <c r="N5" s="235"/>
       <c r="O5" s="234" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="P5" s="234" t="s">
         <v>13</v>
@@ -36445,43 +37143,43 @@
     </row>
     <row r="6" ht="101.25" customHeight="1">
       <c r="A6" s="234" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="B6" s="234" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="C6" s="235"/>
       <c r="D6" s="234" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="E6" s="236" t="s">
-        <v>775</v>
+        <v>784</v>
       </c>
       <c r="F6" s="236" t="s">
-        <v>784</v>
+        <v>793</v>
       </c>
       <c r="G6" s="246" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="H6" s="242" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="I6" s="243" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="J6" s="234" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="K6" s="234" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="L6" s="239" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="M6" s="240"/>
       <c r="N6" s="235"/>
       <c r="O6" s="234" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="P6" s="234" t="s">
         <v>13</v>
@@ -36499,43 +37197,43 @@
     </row>
     <row r="7" ht="103.5" customHeight="1">
       <c r="A7" s="234" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="B7" s="234" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="C7" s="235"/>
       <c r="D7" s="234" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="E7" s="236" t="s">
-        <v>775</v>
+        <v>784</v>
       </c>
       <c r="F7" s="236" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="G7" s="236" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="H7" s="244" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="I7" s="245" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="J7" s="234" t="s">
-        <v>782</v>
+        <v>791</v>
       </c>
       <c r="K7" s="234" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
       <c r="L7" s="239" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="M7" s="240"/>
       <c r="N7" s="235"/>
       <c r="O7" s="234" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="P7" s="234" t="s">
         <v>13</v>
@@ -36553,43 +37251,43 @@
     </row>
     <row r="8" ht="100.5" customHeight="1">
       <c r="A8" s="247" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="B8" s="236" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="C8" s="235"/>
       <c r="D8" s="234" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="E8" s="236" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="F8" s="236" t="s">
-        <v>789</v>
+        <v>798</v>
       </c>
       <c r="G8" s="236" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="H8" s="246" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="I8" s="246" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="J8" s="234" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="K8" s="234" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="L8" s="248" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="M8" s="240"/>
       <c r="N8" s="235"/>
       <c r="O8" s="234" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="P8" s="234" t="s">
         <v>13</v>
@@ -36607,43 +37305,43 @@
     </row>
     <row r="9" ht="106.5" customHeight="1">
       <c r="A9" s="247" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="B9" s="236" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="C9" s="235"/>
       <c r="D9" s="234" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="E9" s="236" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="F9" s="236" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
       <c r="G9" s="236" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="H9" s="236" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="I9" s="236" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="J9" s="234" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="K9" s="234" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="L9" s="248" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="M9" s="249"/>
       <c r="N9" s="235"/>
       <c r="O9" s="234" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="P9" s="234"/>
       <c r="Q9" s="234"/>
@@ -36659,43 +37357,43 @@
     </row>
     <row r="10" ht="87.75" customHeight="1">
       <c r="A10" s="247" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="B10" s="236" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="C10" s="235"/>
       <c r="D10" s="234" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="E10" s="236" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="F10" s="236" t="s">
+        <v>800</v>
+      </c>
+      <c r="G10" s="236" t="s">
+        <v>590</v>
+      </c>
+      <c r="H10" s="236" t="s">
+        <v>591</v>
+      </c>
+      <c r="I10" s="236" t="s">
+        <v>592</v>
+      </c>
+      <c r="J10" s="234" t="s">
         <v>791</v>
       </c>
-      <c r="G10" s="236" t="s">
-        <v>582</v>
-      </c>
-      <c r="H10" s="236" t="s">
-        <v>583</v>
-      </c>
-      <c r="I10" s="236" t="s">
-        <v>584</v>
-      </c>
-      <c r="J10" s="234" t="s">
-        <v>782</v>
-      </c>
       <c r="K10" s="234" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="L10" s="239" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="M10" s="249"/>
       <c r="N10" s="235"/>
       <c r="O10" s="234" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="P10" s="234"/>
       <c r="Q10" s="234"/>
@@ -36711,43 +37409,43 @@
     </row>
     <row r="11" ht="96.75" customHeight="1">
       <c r="A11" s="247" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="B11" s="236" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="C11" s="235"/>
       <c r="D11" s="234" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="E11" s="236" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="F11" s="236" t="s">
-        <v>792</v>
+        <v>801</v>
       </c>
       <c r="G11" s="236" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="H11" s="236" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="I11" s="236" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="J11" s="234" t="s">
-        <v>782</v>
+        <v>791</v>
       </c>
       <c r="K11" s="234" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="L11" s="250" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="M11" s="240"/>
       <c r="N11" s="235"/>
       <c r="O11" s="234" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="P11" s="234"/>
       <c r="Q11" s="234"/>
@@ -36763,43 +37461,43 @@
     </row>
     <row r="12" ht="87.75" customHeight="1">
       <c r="A12" s="234" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="B12" s="234" t="s">
-        <v>793</v>
+        <v>802</v>
       </c>
       <c r="C12" s="235"/>
       <c r="D12" s="234" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="E12" s="236" t="s">
-        <v>794</v>
+        <v>803</v>
       </c>
       <c r="F12" s="236" t="s">
-        <v>795</v>
+        <v>804</v>
       </c>
       <c r="G12" s="236" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="H12" s="236" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="I12" s="236" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="J12" s="234" t="s">
-        <v>782</v>
+        <v>791</v>
       </c>
       <c r="K12" s="234" t="s">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="L12" s="239" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="M12" s="240"/>
       <c r="N12" s="235"/>
       <c r="O12" s="234" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="P12" s="234"/>
       <c r="Q12" s="234"/>
@@ -36815,43 +37513,43 @@
     </row>
     <row r="13" ht="180.75" customHeight="1">
       <c r="A13" s="234" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="B13" s="234" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="C13" s="235"/>
       <c r="D13" s="234" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="E13" s="236" t="s">
-        <v>794</v>
+        <v>803</v>
       </c>
       <c r="F13" s="236" t="s">
-        <v>797</v>
+        <v>806</v>
       </c>
       <c r="G13" s="236" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="H13" s="236" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="I13" s="236" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="J13" s="234" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="K13" s="234" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="L13" s="251" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="M13" s="252"/>
       <c r="N13" s="235"/>
       <c r="O13" s="234" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="P13" s="234"/>
       <c r="Q13" s="234"/>
